--- a/files/SBF_120_Snapshot.xlsx
+++ b/files/SBF_120_Snapshot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
   <si>
     <t>Component</t>
   </si>
@@ -22,6 +22,48 @@
     <t>ISIN</t>
   </si>
   <si>
+    <t>38m</t>
+  </si>
+  <si>
+    <t>37m</t>
+  </si>
+  <si>
+    <t>36m</t>
+  </si>
+  <si>
+    <t>35m</t>
+  </si>
+  <si>
+    <t>34m</t>
+  </si>
+  <si>
+    <t>33m</t>
+  </si>
+  <si>
+    <t>32m</t>
+  </si>
+  <si>
+    <t>31m</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>29m</t>
+  </si>
+  <si>
+    <t>28m</t>
+  </si>
+  <si>
+    <t>27m</t>
+  </si>
+  <si>
+    <t>26m</t>
+  </si>
+  <si>
+    <t>25m</t>
+  </si>
+  <si>
     <t>24m</t>
   </si>
   <si>
@@ -52,9 +94,6 @@
     <t>15m</t>
   </si>
   <si>
-    <t>14m</t>
-  </si>
-  <si>
     <t>13m</t>
   </si>
   <si>
@@ -454,9 +493,6 @@
     <t>WORLDLINE</t>
   </si>
   <si>
-    <t>X-FAB</t>
-  </si>
-  <si>
     <t>FR0000120404-XPAR</t>
   </si>
   <si>
@@ -812,9 +848,6 @@
   </si>
   <si>
     <t>FR0011981968-XPAR</t>
-  </si>
-  <si>
-    <t>BE0974310428-XPAR</t>
   </si>
   <si>
     <t>Aggregated Trend</t>
@@ -1175,13 +1208,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA122"/>
+  <dimension ref="A1:AN121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1263,13 +1296,52 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C2">
         <v>35.21</v>
@@ -1344,15 +1416,54 @@
         <v>35.19</v>
       </c>
       <c r="AA2">
+        <v>35.98</v>
+      </c>
+      <c r="AB2">
+        <v>35.98</v>
+      </c>
+      <c r="AC2">
+        <v>35.98</v>
+      </c>
+      <c r="AD2">
+        <v>35.98</v>
+      </c>
+      <c r="AE2">
+        <v>35.98</v>
+      </c>
+      <c r="AF2">
+        <v>35.98</v>
+      </c>
+      <c r="AG2">
+        <v>35.98</v>
+      </c>
+      <c r="AH2">
+        <v>35.98</v>
+      </c>
+      <c r="AI2">
+        <v>35.98</v>
+      </c>
+      <c r="AJ2">
+        <v>35.98</v>
+      </c>
+      <c r="AK2">
+        <v>35.98</v>
+      </c>
+      <c r="AL2">
+        <v>35.98</v>
+      </c>
+      <c r="AM2">
+        <v>35.98</v>
+      </c>
+      <c r="AN2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C3">
         <v>117.3</v>
@@ -1427,15 +1538,54 @@
         <v>117.1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>114.7</v>
+      </c>
+      <c r="AB3">
+        <v>114.7</v>
+      </c>
+      <c r="AC3">
+        <v>114.7</v>
+      </c>
+      <c r="AD3">
+        <v>114.7</v>
+      </c>
+      <c r="AE3">
+        <v>114.7</v>
+      </c>
+      <c r="AF3">
+        <v>114.7</v>
+      </c>
+      <c r="AG3">
+        <v>114.7</v>
+      </c>
+      <c r="AH3">
+        <v>114.7</v>
+      </c>
+      <c r="AI3">
+        <v>114.7</v>
+      </c>
+      <c r="AJ3">
+        <v>114.7</v>
+      </c>
+      <c r="AK3">
+        <v>114.7</v>
+      </c>
+      <c r="AL3">
+        <v>114.7</v>
+      </c>
+      <c r="AM3">
+        <v>114.7</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C4">
         <v>12.43</v>
@@ -1510,15 +1660,54 @@
         <v>12.4</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>11.55</v>
+      </c>
+      <c r="AB4">
+        <v>11.55</v>
+      </c>
+      <c r="AC4">
+        <v>11.55</v>
+      </c>
+      <c r="AD4">
+        <v>11.55</v>
+      </c>
+      <c r="AE4">
+        <v>11.55</v>
+      </c>
+      <c r="AF4">
+        <v>11.55</v>
+      </c>
+      <c r="AG4">
+        <v>11.55</v>
+      </c>
+      <c r="AH4">
+        <v>11.55</v>
+      </c>
+      <c r="AI4">
+        <v>11.55</v>
+      </c>
+      <c r="AJ4">
+        <v>11.55</v>
+      </c>
+      <c r="AK4">
+        <v>11.55</v>
+      </c>
+      <c r="AL4">
+        <v>11.55</v>
+      </c>
+      <c r="AM4">
+        <v>11.55</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C5">
         <v>174.04</v>
@@ -1593,15 +1782,54 @@
         <v>173.74</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>173.02</v>
+      </c>
+      <c r="AB5">
+        <v>173.02</v>
+      </c>
+      <c r="AC5">
+        <v>173.02</v>
+      </c>
+      <c r="AD5">
+        <v>173.02</v>
+      </c>
+      <c r="AE5">
+        <v>173.02</v>
+      </c>
+      <c r="AF5">
+        <v>173.02</v>
+      </c>
+      <c r="AG5">
+        <v>173.02</v>
+      </c>
+      <c r="AH5">
+        <v>173.02</v>
+      </c>
+      <c r="AI5">
+        <v>173.02</v>
+      </c>
+      <c r="AJ5">
+        <v>173.02</v>
+      </c>
+      <c r="AK5">
+        <v>173.02</v>
+      </c>
+      <c r="AL5">
+        <v>173.02</v>
+      </c>
+      <c r="AM5">
+        <v>173.02</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C6">
         <v>144.76</v>
@@ -1676,15 +1904,54 @@
         <v>144.48</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>148.84</v>
+      </c>
+      <c r="AB6">
+        <v>148.84</v>
+      </c>
+      <c r="AC6">
+        <v>148.84</v>
+      </c>
+      <c r="AD6">
+        <v>148.84</v>
+      </c>
+      <c r="AE6">
+        <v>148.84</v>
+      </c>
+      <c r="AF6">
+        <v>148.84</v>
+      </c>
+      <c r="AG6">
+        <v>148.84</v>
+      </c>
+      <c r="AH6">
+        <v>148.84</v>
+      </c>
+      <c r="AI6">
+        <v>148.84</v>
+      </c>
+      <c r="AJ6">
+        <v>148.84</v>
+      </c>
+      <c r="AK6">
+        <v>148.84</v>
+      </c>
+      <c r="AL6">
+        <v>148.84</v>
+      </c>
+      <c r="AM6">
+        <v>148.84</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C7">
         <v>5.96</v>
@@ -1759,15 +2026,54 @@
         <v>5.94</v>
       </c>
       <c r="AA7">
+        <v>5.61</v>
+      </c>
+      <c r="AB7">
+        <v>5.61</v>
+      </c>
+      <c r="AC7">
+        <v>5.61</v>
+      </c>
+      <c r="AD7">
+        <v>5.61</v>
+      </c>
+      <c r="AE7">
+        <v>5.61</v>
+      </c>
+      <c r="AF7">
+        <v>5.61</v>
+      </c>
+      <c r="AG7">
+        <v>5.61</v>
+      </c>
+      <c r="AH7">
+        <v>5.61</v>
+      </c>
+      <c r="AI7">
+        <v>5.61</v>
+      </c>
+      <c r="AJ7">
+        <v>5.61</v>
+      </c>
+      <c r="AK7">
+        <v>5.61</v>
+      </c>
+      <c r="AL7">
+        <v>5.61</v>
+      </c>
+      <c r="AM7">
+        <v>5.61</v>
+      </c>
+      <c r="AN7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C8">
         <v>11.95</v>
@@ -1842,15 +2148,54 @@
         <v>11.88</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>10.96</v>
+      </c>
+      <c r="AB8">
+        <v>10.96</v>
+      </c>
+      <c r="AC8">
+        <v>10.96</v>
+      </c>
+      <c r="AD8">
+        <v>10.96</v>
+      </c>
+      <c r="AE8">
+        <v>10.96</v>
+      </c>
+      <c r="AF8">
+        <v>10.96</v>
+      </c>
+      <c r="AG8">
+        <v>10.96</v>
+      </c>
+      <c r="AH8">
+        <v>10.96</v>
+      </c>
+      <c r="AI8">
+        <v>10.96</v>
+      </c>
+      <c r="AJ8">
+        <v>10.96</v>
+      </c>
+      <c r="AK8">
+        <v>10.96</v>
+      </c>
+      <c r="AL8">
+        <v>10.96</v>
+      </c>
+      <c r="AM8">
+        <v>10.96</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C9">
         <v>130.3</v>
@@ -1925,15 +2270,54 @@
         <v>129.9</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>133.1</v>
+      </c>
+      <c r="AB9">
+        <v>133.1</v>
+      </c>
+      <c r="AC9">
+        <v>133.1</v>
+      </c>
+      <c r="AD9">
+        <v>133.1</v>
+      </c>
+      <c r="AE9">
+        <v>133.1</v>
+      </c>
+      <c r="AF9">
+        <v>133.1</v>
+      </c>
+      <c r="AG9">
+        <v>133.1</v>
+      </c>
+      <c r="AH9">
+        <v>133.1</v>
+      </c>
+      <c r="AI9">
+        <v>133.1</v>
+      </c>
+      <c r="AJ9">
+        <v>133.1</v>
+      </c>
+      <c r="AK9">
+        <v>133.1</v>
+      </c>
+      <c r="AL9">
+        <v>133.1</v>
+      </c>
+      <c r="AM9">
+        <v>133.1</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C10">
         <v>63.15</v>
@@ -2008,15 +2392,54 @@
         <v>63</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>62</v>
+      </c>
+      <c r="AB10">
+        <v>62</v>
+      </c>
+      <c r="AC10">
+        <v>62</v>
+      </c>
+      <c r="AD10">
+        <v>62</v>
+      </c>
+      <c r="AE10">
+        <v>62</v>
+      </c>
+      <c r="AF10">
+        <v>62</v>
+      </c>
+      <c r="AG10">
+        <v>62</v>
+      </c>
+      <c r="AH10">
+        <v>62</v>
+      </c>
+      <c r="AI10">
+        <v>62</v>
+      </c>
+      <c r="AJ10">
+        <v>62</v>
+      </c>
+      <c r="AK10">
+        <v>62</v>
+      </c>
+      <c r="AL10">
+        <v>62</v>
+      </c>
+      <c r="AM10">
+        <v>62</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C11">
         <v>28.45</v>
@@ -2091,15 +2514,54 @@
         <v>28.34</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>28.85</v>
+      </c>
+      <c r="AB11">
+        <v>28.85</v>
+      </c>
+      <c r="AC11">
+        <v>28.85</v>
+      </c>
+      <c r="AD11">
+        <v>28.85</v>
+      </c>
+      <c r="AE11">
+        <v>28.85</v>
+      </c>
+      <c r="AF11">
+        <v>28.85</v>
+      </c>
+      <c r="AG11">
+        <v>28.85</v>
+      </c>
+      <c r="AH11">
+        <v>28.85</v>
+      </c>
+      <c r="AI11">
+        <v>28.85</v>
+      </c>
+      <c r="AJ11">
+        <v>28.85</v>
+      </c>
+      <c r="AK11">
+        <v>28.85</v>
+      </c>
+      <c r="AL11">
+        <v>28.85</v>
+      </c>
+      <c r="AM11">
+        <v>28.85</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C12">
         <v>24.55</v>
@@ -2174,15 +2636,54 @@
         <v>24.4</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>24.18</v>
+      </c>
+      <c r="AB12">
+        <v>24.18</v>
+      </c>
+      <c r="AC12">
+        <v>24.18</v>
+      </c>
+      <c r="AD12">
+        <v>24.18</v>
+      </c>
+      <c r="AE12">
+        <v>24.18</v>
+      </c>
+      <c r="AF12">
+        <v>24.18</v>
+      </c>
+      <c r="AG12">
+        <v>24.18</v>
+      </c>
+      <c r="AH12">
+        <v>24.18</v>
+      </c>
+      <c r="AI12">
+        <v>24.18</v>
+      </c>
+      <c r="AJ12">
+        <v>24.18</v>
+      </c>
+      <c r="AK12">
+        <v>24.18</v>
+      </c>
+      <c r="AL12">
+        <v>24.18</v>
+      </c>
+      <c r="AM12">
+        <v>24.18</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:40">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C13">
         <v>84.09999999999999</v>
@@ -2257,15 +2758,54 @@
         <v>84</v>
       </c>
       <c r="AA13">
+        <v>82.7</v>
+      </c>
+      <c r="AB13">
+        <v>82.7</v>
+      </c>
+      <c r="AC13">
+        <v>82.7</v>
+      </c>
+      <c r="AD13">
+        <v>82.7</v>
+      </c>
+      <c r="AE13">
+        <v>82.7</v>
+      </c>
+      <c r="AF13">
+        <v>82.7</v>
+      </c>
+      <c r="AG13">
+        <v>82.7</v>
+      </c>
+      <c r="AH13">
+        <v>82.7</v>
+      </c>
+      <c r="AI13">
+        <v>82.7</v>
+      </c>
+      <c r="AJ13">
+        <v>82.7</v>
+      </c>
+      <c r="AK13">
+        <v>82.7</v>
+      </c>
+      <c r="AL13">
+        <v>82.7</v>
+      </c>
+      <c r="AM13">
+        <v>82.7</v>
+      </c>
+      <c r="AN13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:40">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C14">
         <v>97.59999999999999</v>
@@ -2340,15 +2880,54 @@
         <v>97.5</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>99.44</v>
+      </c>
+      <c r="AB14">
+        <v>99.44</v>
+      </c>
+      <c r="AC14">
+        <v>99.44</v>
+      </c>
+      <c r="AD14">
+        <v>99.44</v>
+      </c>
+      <c r="AE14">
+        <v>99.44</v>
+      </c>
+      <c r="AF14">
+        <v>99.44</v>
+      </c>
+      <c r="AG14">
+        <v>99.44</v>
+      </c>
+      <c r="AH14">
+        <v>99.44</v>
+      </c>
+      <c r="AI14">
+        <v>99.44</v>
+      </c>
+      <c r="AJ14">
+        <v>99.44</v>
+      </c>
+      <c r="AK14">
+        <v>99.44</v>
+      </c>
+      <c r="AL14">
+        <v>99.44</v>
+      </c>
+      <c r="AM14">
+        <v>99.44</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:40">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C15">
         <v>5.8</v>
@@ -2423,15 +3002,54 @@
         <v>5.78</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>3.41</v>
+      </c>
+      <c r="AB15">
+        <v>3.41</v>
+      </c>
+      <c r="AC15">
+        <v>3.41</v>
+      </c>
+      <c r="AD15">
+        <v>3.41</v>
+      </c>
+      <c r="AE15">
+        <v>3.41</v>
+      </c>
+      <c r="AF15">
+        <v>3.41</v>
+      </c>
+      <c r="AG15">
+        <v>3.41</v>
+      </c>
+      <c r="AH15">
+        <v>3.41</v>
+      </c>
+      <c r="AI15">
+        <v>3.41</v>
+      </c>
+      <c r="AJ15">
+        <v>3.41</v>
+      </c>
+      <c r="AK15">
+        <v>3.41</v>
+      </c>
+      <c r="AL15">
+        <v>3.41</v>
+      </c>
+      <c r="AM15">
+        <v>3.41</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:40">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C16">
         <v>29.49</v>
@@ -2506,15 +3124,54 @@
         <v>29.39</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>30.57</v>
+      </c>
+      <c r="AB16">
+        <v>30.57</v>
+      </c>
+      <c r="AC16">
+        <v>30.57</v>
+      </c>
+      <c r="AD16">
+        <v>30.57</v>
+      </c>
+      <c r="AE16">
+        <v>30.57</v>
+      </c>
+      <c r="AF16">
+        <v>30.57</v>
+      </c>
+      <c r="AG16">
+        <v>30.57</v>
+      </c>
+      <c r="AH16">
+        <v>30.57</v>
+      </c>
+      <c r="AI16">
+        <v>30.57</v>
+      </c>
+      <c r="AJ16">
+        <v>30.57</v>
+      </c>
+      <c r="AK16">
+        <v>30.57</v>
+      </c>
+      <c r="AL16">
+        <v>30.57</v>
+      </c>
+      <c r="AM16">
+        <v>30.57</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:40">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C17">
         <v>11.56</v>
@@ -2589,15 +3246,54 @@
         <v>11.5</v>
       </c>
       <c r="AA17">
+        <v>11.1</v>
+      </c>
+      <c r="AB17">
+        <v>11.1</v>
+      </c>
+      <c r="AC17">
+        <v>11.1</v>
+      </c>
+      <c r="AD17">
+        <v>11.1</v>
+      </c>
+      <c r="AE17">
+        <v>11.1</v>
+      </c>
+      <c r="AF17">
+        <v>11.1</v>
+      </c>
+      <c r="AG17">
+        <v>11.1</v>
+      </c>
+      <c r="AH17">
+        <v>11.1</v>
+      </c>
+      <c r="AI17">
+        <v>11.1</v>
+      </c>
+      <c r="AJ17">
+        <v>11.1</v>
+      </c>
+      <c r="AK17">
+        <v>11.1</v>
+      </c>
+      <c r="AL17">
+        <v>11.1</v>
+      </c>
+      <c r="AM17">
+        <v>11.1</v>
+      </c>
+      <c r="AN17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:40">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C18">
         <v>64.34999999999999</v>
@@ -2672,15 +3368,54 @@
         <v>64.40000000000001</v>
       </c>
       <c r="AA18">
+        <v>63.9</v>
+      </c>
+      <c r="AB18">
+        <v>63.9</v>
+      </c>
+      <c r="AC18">
+        <v>63.9</v>
+      </c>
+      <c r="AD18">
+        <v>63.9</v>
+      </c>
+      <c r="AE18">
+        <v>63.9</v>
+      </c>
+      <c r="AF18">
+        <v>63.9</v>
+      </c>
+      <c r="AG18">
+        <v>63.9</v>
+      </c>
+      <c r="AH18">
+        <v>63.9</v>
+      </c>
+      <c r="AI18">
+        <v>63.9</v>
+      </c>
+      <c r="AJ18">
+        <v>63.9</v>
+      </c>
+      <c r="AK18">
+        <v>63.9</v>
+      </c>
+      <c r="AL18">
+        <v>63.9</v>
+      </c>
+      <c r="AM18">
+        <v>63.9</v>
+      </c>
+      <c r="AN18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:40">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C19">
         <v>100.5</v>
@@ -2755,15 +3490,54 @@
         <v>100.3</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>101.75</v>
+      </c>
+      <c r="AB19">
+        <v>101.75</v>
+      </c>
+      <c r="AC19">
+        <v>101.75</v>
+      </c>
+      <c r="AD19">
+        <v>101.75</v>
+      </c>
+      <c r="AE19">
+        <v>101.75</v>
+      </c>
+      <c r="AF19">
+        <v>101.75</v>
+      </c>
+      <c r="AG19">
+        <v>101.75</v>
+      </c>
+      <c r="AH19">
+        <v>101.75</v>
+      </c>
+      <c r="AI19">
+        <v>101.75</v>
+      </c>
+      <c r="AJ19">
+        <v>101.75</v>
+      </c>
+      <c r="AK19">
+        <v>101.75</v>
+      </c>
+      <c r="AL19">
+        <v>101.75</v>
+      </c>
+      <c r="AM19">
+        <v>101.75</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:40">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C20">
         <v>61.83</v>
@@ -2838,15 +3612,54 @@
         <v>61.1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>60.61</v>
+      </c>
+      <c r="AB20">
+        <v>60.61</v>
+      </c>
+      <c r="AC20">
+        <v>60.61</v>
+      </c>
+      <c r="AD20">
+        <v>60.61</v>
+      </c>
+      <c r="AE20">
+        <v>60.61</v>
+      </c>
+      <c r="AF20">
+        <v>60.61</v>
+      </c>
+      <c r="AG20">
+        <v>60.61</v>
+      </c>
+      <c r="AH20">
+        <v>60.61</v>
+      </c>
+      <c r="AI20">
+        <v>60.61</v>
+      </c>
+      <c r="AJ20">
+        <v>60.61</v>
+      </c>
+      <c r="AK20">
+        <v>60.61</v>
+      </c>
+      <c r="AL20">
+        <v>60.61</v>
+      </c>
+      <c r="AM20">
+        <v>60.61</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:40">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C21">
         <v>5.7</v>
@@ -2921,15 +3734,54 @@
         <v>5.67</v>
       </c>
       <c r="AA21">
+        <v>5.64</v>
+      </c>
+      <c r="AB21">
+        <v>5.64</v>
+      </c>
+      <c r="AC21">
+        <v>5.64</v>
+      </c>
+      <c r="AD21">
+        <v>5.64</v>
+      </c>
+      <c r="AE21">
+        <v>5.64</v>
+      </c>
+      <c r="AF21">
+        <v>5.64</v>
+      </c>
+      <c r="AG21">
+        <v>5.64</v>
+      </c>
+      <c r="AH21">
+        <v>5.64</v>
+      </c>
+      <c r="AI21">
+        <v>5.64</v>
+      </c>
+      <c r="AJ21">
+        <v>5.64</v>
+      </c>
+      <c r="AK21">
+        <v>5.64</v>
+      </c>
+      <c r="AL21">
+        <v>5.64</v>
+      </c>
+      <c r="AM21">
+        <v>5.64</v>
+      </c>
+      <c r="AN21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:40">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C22">
         <v>35.63</v>
@@ -3004,15 +3856,54 @@
         <v>35.53</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>34.68</v>
+      </c>
+      <c r="AB22">
+        <v>34.68</v>
+      </c>
+      <c r="AC22">
+        <v>34.68</v>
+      </c>
+      <c r="AD22">
+        <v>34.68</v>
+      </c>
+      <c r="AE22">
+        <v>34.68</v>
+      </c>
+      <c r="AF22">
+        <v>34.68</v>
+      </c>
+      <c r="AG22">
+        <v>34.68</v>
+      </c>
+      <c r="AH22">
+        <v>34.68</v>
+      </c>
+      <c r="AI22">
+        <v>34.68</v>
+      </c>
+      <c r="AJ22">
+        <v>34.68</v>
+      </c>
+      <c r="AK22">
+        <v>34.68</v>
+      </c>
+      <c r="AL22">
+        <v>34.68</v>
+      </c>
+      <c r="AM22">
+        <v>34.68</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:40">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C23">
         <v>22.86</v>
@@ -3087,15 +3978,54 @@
         <v>22.8</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>23.85</v>
+      </c>
+      <c r="AB23">
+        <v>23.85</v>
+      </c>
+      <c r="AC23">
+        <v>23.85</v>
+      </c>
+      <c r="AD23">
+        <v>23.85</v>
+      </c>
+      <c r="AE23">
+        <v>23.85</v>
+      </c>
+      <c r="AF23">
+        <v>23.85</v>
+      </c>
+      <c r="AG23">
+        <v>23.85</v>
+      </c>
+      <c r="AH23">
+        <v>23.85</v>
+      </c>
+      <c r="AI23">
+        <v>23.85</v>
+      </c>
+      <c r="AJ23">
+        <v>23.85</v>
+      </c>
+      <c r="AK23">
+        <v>23.85</v>
+      </c>
+      <c r="AL23">
+        <v>23.85</v>
+      </c>
+      <c r="AM23">
+        <v>23.85</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:40">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C24">
         <v>185.45</v>
@@ -3170,15 +4100,54 @@
         <v>186.15</v>
       </c>
       <c r="AA24">
+        <v>197.05</v>
+      </c>
+      <c r="AB24">
+        <v>197.05</v>
+      </c>
+      <c r="AC24">
+        <v>197.05</v>
+      </c>
+      <c r="AD24">
+        <v>197.05</v>
+      </c>
+      <c r="AE24">
+        <v>197.05</v>
+      </c>
+      <c r="AF24">
+        <v>197.05</v>
+      </c>
+      <c r="AG24">
+        <v>197.05</v>
+      </c>
+      <c r="AH24">
+        <v>197.05</v>
+      </c>
+      <c r="AI24">
+        <v>197.05</v>
+      </c>
+      <c r="AJ24">
+        <v>197.05</v>
+      </c>
+      <c r="AK24">
+        <v>197.05</v>
+      </c>
+      <c r="AL24">
+        <v>197.05</v>
+      </c>
+      <c r="AM24">
+        <v>197.05</v>
+      </c>
+      <c r="AN24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:40">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C25">
         <v>15.98</v>
@@ -3253,15 +4222,54 @@
         <v>15.96</v>
       </c>
       <c r="AA25">
+        <v>16.18</v>
+      </c>
+      <c r="AB25">
+        <v>16.18</v>
+      </c>
+      <c r="AC25">
+        <v>16.18</v>
+      </c>
+      <c r="AD25">
+        <v>16.18</v>
+      </c>
+      <c r="AE25">
+        <v>16.18</v>
+      </c>
+      <c r="AF25">
+        <v>16.18</v>
+      </c>
+      <c r="AG25">
+        <v>16.18</v>
+      </c>
+      <c r="AH25">
+        <v>16.18</v>
+      </c>
+      <c r="AI25">
+        <v>16.18</v>
+      </c>
+      <c r="AJ25">
+        <v>16.18</v>
+      </c>
+      <c r="AK25">
+        <v>16.18</v>
+      </c>
+      <c r="AL25">
+        <v>16.18</v>
+      </c>
+      <c r="AM25">
+        <v>16.18</v>
+      </c>
+      <c r="AN25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:40">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C26">
         <v>16.54</v>
@@ -3336,15 +4344,54 @@
         <v>16.5</v>
       </c>
       <c r="AA26">
+        <v>15.61</v>
+      </c>
+      <c r="AB26">
+        <v>15.61</v>
+      </c>
+      <c r="AC26">
+        <v>15.61</v>
+      </c>
+      <c r="AD26">
+        <v>15.61</v>
+      </c>
+      <c r="AE26">
+        <v>15.61</v>
+      </c>
+      <c r="AF26">
+        <v>15.61</v>
+      </c>
+      <c r="AG26">
+        <v>15.61</v>
+      </c>
+      <c r="AH26">
+        <v>15.61</v>
+      </c>
+      <c r="AI26">
+        <v>15.61</v>
+      </c>
+      <c r="AJ26">
+        <v>15.61</v>
+      </c>
+      <c r="AK26">
+        <v>15.61</v>
+      </c>
+      <c r="AL26">
+        <v>15.61</v>
+      </c>
+      <c r="AM26">
+        <v>15.61</v>
+      </c>
+      <c r="AN26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:40">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C27">
         <v>0.55</v>
@@ -3419,15 +4466,54 @@
         <v>0.54</v>
       </c>
       <c r="AA27">
+        <v>0.44</v>
+      </c>
+      <c r="AB27">
+        <v>0.44</v>
+      </c>
+      <c r="AC27">
+        <v>0.44</v>
+      </c>
+      <c r="AD27">
+        <v>0.44</v>
+      </c>
+      <c r="AE27">
+        <v>0.44</v>
+      </c>
+      <c r="AF27">
+        <v>0.44</v>
+      </c>
+      <c r="AG27">
+        <v>0.44</v>
+      </c>
+      <c r="AH27">
+        <v>0.44</v>
+      </c>
+      <c r="AI27">
+        <v>0.44</v>
+      </c>
+      <c r="AJ27">
+        <v>0.44</v>
+      </c>
+      <c r="AK27">
+        <v>0.44</v>
+      </c>
+      <c r="AL27">
+        <v>0.44</v>
+      </c>
+      <c r="AM27">
+        <v>0.44</v>
+      </c>
+      <c r="AN27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:40">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C28">
         <v>2.28</v>
@@ -3502,15 +4588,54 @@
         <v>2.25</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>2.09</v>
+      </c>
+      <c r="AB28">
+        <v>2.09</v>
+      </c>
+      <c r="AC28">
+        <v>2.09</v>
+      </c>
+      <c r="AD28">
+        <v>2.09</v>
+      </c>
+      <c r="AE28">
+        <v>2.09</v>
+      </c>
+      <c r="AF28">
+        <v>2.09</v>
+      </c>
+      <c r="AG28">
+        <v>2.09</v>
+      </c>
+      <c r="AH28">
+        <v>2.09</v>
+      </c>
+      <c r="AI28">
+        <v>2.09</v>
+      </c>
+      <c r="AJ28">
+        <v>2.09</v>
+      </c>
+      <c r="AK28">
+        <v>2.09</v>
+      </c>
+      <c r="AL28">
+        <v>2.09</v>
+      </c>
+      <c r="AM28">
+        <v>2.09</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:40">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C29">
         <v>12.36</v>
@@ -3585,15 +4710,54 @@
         <v>12.32</v>
       </c>
       <c r="AA29">
+        <v>12.66</v>
+      </c>
+      <c r="AB29">
+        <v>12.66</v>
+      </c>
+      <c r="AC29">
+        <v>12.66</v>
+      </c>
+      <c r="AD29">
+        <v>12.66</v>
+      </c>
+      <c r="AE29">
+        <v>12.66</v>
+      </c>
+      <c r="AF29">
+        <v>12.66</v>
+      </c>
+      <c r="AG29">
+        <v>12.66</v>
+      </c>
+      <c r="AH29">
+        <v>12.66</v>
+      </c>
+      <c r="AI29">
+        <v>12.66</v>
+      </c>
+      <c r="AJ29">
+        <v>12.66</v>
+      </c>
+      <c r="AK29">
+        <v>12.66</v>
+      </c>
+      <c r="AL29">
+        <v>12.66</v>
+      </c>
+      <c r="AM29">
+        <v>12.66</v>
+      </c>
+      <c r="AN29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:40">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C30">
         <v>46.1</v>
@@ -3668,15 +4832,54 @@
         <v>45.92</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>45.02</v>
+      </c>
+      <c r="AB30">
+        <v>45.02</v>
+      </c>
+      <c r="AC30">
+        <v>45.02</v>
+      </c>
+      <c r="AD30">
+        <v>45.02</v>
+      </c>
+      <c r="AE30">
+        <v>45.02</v>
+      </c>
+      <c r="AF30">
+        <v>45.02</v>
+      </c>
+      <c r="AG30">
+        <v>45.02</v>
+      </c>
+      <c r="AH30">
+        <v>45.02</v>
+      </c>
+      <c r="AI30">
+        <v>45.02</v>
+      </c>
+      <c r="AJ30">
+        <v>45.02</v>
+      </c>
+      <c r="AK30">
+        <v>45.02</v>
+      </c>
+      <c r="AL30">
+        <v>45.02</v>
+      </c>
+      <c r="AM30">
+        <v>45.02</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:40">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C31">
         <v>13.19</v>
@@ -3751,15 +4954,54 @@
         <v>13.13</v>
       </c>
       <c r="AA31">
+        <v>13.23</v>
+      </c>
+      <c r="AB31">
+        <v>13.23</v>
+      </c>
+      <c r="AC31">
+        <v>13.23</v>
+      </c>
+      <c r="AD31">
+        <v>13.23</v>
+      </c>
+      <c r="AE31">
+        <v>13.23</v>
+      </c>
+      <c r="AF31">
+        <v>13.23</v>
+      </c>
+      <c r="AG31">
+        <v>13.23</v>
+      </c>
+      <c r="AH31">
+        <v>13.23</v>
+      </c>
+      <c r="AI31">
+        <v>13.23</v>
+      </c>
+      <c r="AJ31">
+        <v>13.23</v>
+      </c>
+      <c r="AK31">
+        <v>13.23</v>
+      </c>
+      <c r="AL31">
+        <v>13.23</v>
+      </c>
+      <c r="AM31">
+        <v>13.23</v>
+      </c>
+      <c r="AN31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:40">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C32">
         <v>60.51</v>
@@ -3834,15 +5076,54 @@
         <v>60.46</v>
       </c>
       <c r="AA32">
+        <v>61.6</v>
+      </c>
+      <c r="AB32">
+        <v>61.6</v>
+      </c>
+      <c r="AC32">
+        <v>61.6</v>
+      </c>
+      <c r="AD32">
+        <v>61.6</v>
+      </c>
+      <c r="AE32">
+        <v>61.6</v>
+      </c>
+      <c r="AF32">
+        <v>61.6</v>
+      </c>
+      <c r="AG32">
+        <v>61.6</v>
+      </c>
+      <c r="AH32">
+        <v>61.6</v>
+      </c>
+      <c r="AI32">
+        <v>61.6</v>
+      </c>
+      <c r="AJ32">
+        <v>61.6</v>
+      </c>
+      <c r="AK32">
+        <v>61.6</v>
+      </c>
+      <c r="AL32">
+        <v>61.6</v>
+      </c>
+      <c r="AM32">
+        <v>61.6</v>
+      </c>
+      <c r="AN32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:40">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C33">
         <v>186.4</v>
@@ -3917,15 +5198,54 @@
         <v>186.1</v>
       </c>
       <c r="AA33">
+        <v>171</v>
+      </c>
+      <c r="AB33">
+        <v>171</v>
+      </c>
+      <c r="AC33">
+        <v>171</v>
+      </c>
+      <c r="AD33">
+        <v>171</v>
+      </c>
+      <c r="AE33">
+        <v>171</v>
+      </c>
+      <c r="AF33">
+        <v>171</v>
+      </c>
+      <c r="AG33">
+        <v>171</v>
+      </c>
+      <c r="AH33">
+        <v>171</v>
+      </c>
+      <c r="AI33">
+        <v>171</v>
+      </c>
+      <c r="AJ33">
+        <v>171</v>
+      </c>
+      <c r="AK33">
+        <v>171</v>
+      </c>
+      <c r="AL33">
+        <v>171</v>
+      </c>
+      <c r="AM33">
+        <v>171</v>
+      </c>
+      <c r="AN33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:40">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C34">
         <v>43.27</v>
@@ -4000,15 +5320,54 @@
         <v>43.4</v>
       </c>
       <c r="AA34">
+        <v>46.15</v>
+      </c>
+      <c r="AB34">
+        <v>46.15</v>
+      </c>
+      <c r="AC34">
+        <v>46.15</v>
+      </c>
+      <c r="AD34">
+        <v>46.15</v>
+      </c>
+      <c r="AE34">
+        <v>46.15</v>
+      </c>
+      <c r="AF34">
+        <v>46.15</v>
+      </c>
+      <c r="AG34">
+        <v>46.15</v>
+      </c>
+      <c r="AH34">
+        <v>46.15</v>
+      </c>
+      <c r="AI34">
+        <v>46.15</v>
+      </c>
+      <c r="AJ34">
+        <v>46.15</v>
+      </c>
+      <c r="AK34">
+        <v>46.15</v>
+      </c>
+      <c r="AL34">
+        <v>46.15</v>
+      </c>
+      <c r="AM34">
+        <v>46.15</v>
+      </c>
+      <c r="AN34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:40">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -4083,15 +5442,54 @@
         <v>5</v>
       </c>
       <c r="AA35">
+        <v>4.67</v>
+      </c>
+      <c r="AB35">
+        <v>4.67</v>
+      </c>
+      <c r="AC35">
+        <v>4.67</v>
+      </c>
+      <c r="AD35">
+        <v>4.67</v>
+      </c>
+      <c r="AE35">
+        <v>4.67</v>
+      </c>
+      <c r="AF35">
+        <v>4.67</v>
+      </c>
+      <c r="AG35">
+        <v>4.67</v>
+      </c>
+      <c r="AH35">
+        <v>4.67</v>
+      </c>
+      <c r="AI35">
+        <v>4.67</v>
+      </c>
+      <c r="AJ35">
+        <v>4.67</v>
+      </c>
+      <c r="AK35">
+        <v>4.67</v>
+      </c>
+      <c r="AL35">
+        <v>4.67</v>
+      </c>
+      <c r="AM35">
+        <v>4.67</v>
+      </c>
+      <c r="AN35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:40">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C36">
         <v>55.72</v>
@@ -4166,15 +5564,54 @@
         <v>55.5</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>57.72</v>
+      </c>
+      <c r="AB36">
+        <v>57.72</v>
+      </c>
+      <c r="AC36">
+        <v>57.72</v>
+      </c>
+      <c r="AD36">
+        <v>57.72</v>
+      </c>
+      <c r="AE36">
+        <v>57.72</v>
+      </c>
+      <c r="AF36">
+        <v>57.72</v>
+      </c>
+      <c r="AG36">
+        <v>57.72</v>
+      </c>
+      <c r="AH36">
+        <v>57.72</v>
+      </c>
+      <c r="AI36">
+        <v>57.72</v>
+      </c>
+      <c r="AJ36">
+        <v>57.72</v>
+      </c>
+      <c r="AK36">
+        <v>57.72</v>
+      </c>
+      <c r="AL36">
+        <v>57.72</v>
+      </c>
+      <c r="AM36">
+        <v>57.72</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:40">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C37">
         <v>97.59999999999999</v>
@@ -4249,15 +5686,54 @@
         <v>97.28</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>96.52</v>
+      </c>
+      <c r="AB37">
+        <v>96.52</v>
+      </c>
+      <c r="AC37">
+        <v>96.52</v>
+      </c>
+      <c r="AD37">
+        <v>96.52</v>
+      </c>
+      <c r="AE37">
+        <v>96.52</v>
+      </c>
+      <c r="AF37">
+        <v>96.52</v>
+      </c>
+      <c r="AG37">
+        <v>96.52</v>
+      </c>
+      <c r="AH37">
+        <v>96.52</v>
+      </c>
+      <c r="AI37">
+        <v>96.52</v>
+      </c>
+      <c r="AJ37">
+        <v>96.52</v>
+      </c>
+      <c r="AK37">
+        <v>96.52</v>
+      </c>
+      <c r="AL37">
+        <v>96.52</v>
+      </c>
+      <c r="AM37">
+        <v>96.52</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:40">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C38">
         <v>2.71</v>
@@ -4332,15 +5808,54 @@
         <v>2.69</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>2.74</v>
+      </c>
+      <c r="AB38">
+        <v>2.74</v>
+      </c>
+      <c r="AC38">
+        <v>2.74</v>
+      </c>
+      <c r="AD38">
+        <v>2.74</v>
+      </c>
+      <c r="AE38">
+        <v>2.74</v>
+      </c>
+      <c r="AF38">
+        <v>2.74</v>
+      </c>
+      <c r="AG38">
+        <v>2.74</v>
+      </c>
+      <c r="AH38">
+        <v>2.74</v>
+      </c>
+      <c r="AI38">
+        <v>2.74</v>
+      </c>
+      <c r="AJ38">
+        <v>2.74</v>
+      </c>
+      <c r="AK38">
+        <v>2.74</v>
+      </c>
+      <c r="AL38">
+        <v>2.74</v>
+      </c>
+      <c r="AM38">
+        <v>2.74</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:40">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C39">
         <v>19.16</v>
@@ -4415,15 +5930,54 @@
         <v>19.05</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>19.5</v>
+      </c>
+      <c r="AB39">
+        <v>19.5</v>
+      </c>
+      <c r="AC39">
+        <v>19.5</v>
+      </c>
+      <c r="AD39">
+        <v>19.5</v>
+      </c>
+      <c r="AE39">
+        <v>19.5</v>
+      </c>
+      <c r="AF39">
+        <v>19.5</v>
+      </c>
+      <c r="AG39">
+        <v>19.5</v>
+      </c>
+      <c r="AH39">
+        <v>19.5</v>
+      </c>
+      <c r="AI39">
+        <v>19.5</v>
+      </c>
+      <c r="AJ39">
+        <v>19.5</v>
+      </c>
+      <c r="AK39">
+        <v>19.5</v>
+      </c>
+      <c r="AL39">
+        <v>19.5</v>
+      </c>
+      <c r="AM39">
+        <v>19.5</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:40">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C40">
         <v>16.45</v>
@@ -4498,15 +6052,54 @@
         <v>16.4</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>15.55</v>
+      </c>
+      <c r="AB40">
+        <v>15.55</v>
+      </c>
+      <c r="AC40">
+        <v>15.55</v>
+      </c>
+      <c r="AD40">
+        <v>15.55</v>
+      </c>
+      <c r="AE40">
+        <v>15.55</v>
+      </c>
+      <c r="AF40">
+        <v>15.55</v>
+      </c>
+      <c r="AG40">
+        <v>15.55</v>
+      </c>
+      <c r="AH40">
+        <v>15.55</v>
+      </c>
+      <c r="AI40">
+        <v>15.55</v>
+      </c>
+      <c r="AJ40">
+        <v>15.55</v>
+      </c>
+      <c r="AK40">
+        <v>15.55</v>
+      </c>
+      <c r="AL40">
+        <v>15.55</v>
+      </c>
+      <c r="AM40">
+        <v>15.55</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:40">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C41">
         <v>65.09999999999999</v>
@@ -4581,15 +6174,54 @@
         <v>64.55</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>61.95</v>
+      </c>
+      <c r="AB41">
+        <v>61.95</v>
+      </c>
+      <c r="AC41">
+        <v>61.95</v>
+      </c>
+      <c r="AD41">
+        <v>61.95</v>
+      </c>
+      <c r="AE41">
+        <v>61.95</v>
+      </c>
+      <c r="AF41">
+        <v>61.95</v>
+      </c>
+      <c r="AG41">
+        <v>61.95</v>
+      </c>
+      <c r="AH41">
+        <v>61.95</v>
+      </c>
+      <c r="AI41">
+        <v>61.95</v>
+      </c>
+      <c r="AJ41">
+        <v>61.95</v>
+      </c>
+      <c r="AK41">
+        <v>61.95</v>
+      </c>
+      <c r="AL41">
+        <v>61.95</v>
+      </c>
+      <c r="AM41">
+        <v>61.95</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:40">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C42">
         <v>184.72</v>
@@ -4664,15 +6296,54 @@
         <v>184.48</v>
       </c>
       <c r="AA42">
+        <v>177.68</v>
+      </c>
+      <c r="AB42">
+        <v>177.68</v>
+      </c>
+      <c r="AC42">
+        <v>177.68</v>
+      </c>
+      <c r="AD42">
+        <v>177.68</v>
+      </c>
+      <c r="AE42">
+        <v>177.68</v>
+      </c>
+      <c r="AF42">
+        <v>177.68</v>
+      </c>
+      <c r="AG42">
+        <v>177.68</v>
+      </c>
+      <c r="AH42">
+        <v>177.68</v>
+      </c>
+      <c r="AI42">
+        <v>177.68</v>
+      </c>
+      <c r="AJ42">
+        <v>177.68</v>
+      </c>
+      <c r="AK42">
+        <v>177.68</v>
+      </c>
+      <c r="AL42">
+        <v>177.68</v>
+      </c>
+      <c r="AM42">
+        <v>177.68</v>
+      </c>
+      <c r="AN42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:40">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C43">
         <v>71.09999999999999</v>
@@ -4747,15 +6418,54 @@
         <v>70.59999999999999</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>74.25</v>
+      </c>
+      <c r="AB43">
+        <v>74.25</v>
+      </c>
+      <c r="AC43">
+        <v>74.25</v>
+      </c>
+      <c r="AD43">
+        <v>74.25</v>
+      </c>
+      <c r="AE43">
+        <v>74.25</v>
+      </c>
+      <c r="AF43">
+        <v>74.25</v>
+      </c>
+      <c r="AG43">
+        <v>74.25</v>
+      </c>
+      <c r="AH43">
+        <v>74.25</v>
+      </c>
+      <c r="AI43">
+        <v>74.25</v>
+      </c>
+      <c r="AJ43">
+        <v>74.25</v>
+      </c>
+      <c r="AK43">
+        <v>74.25</v>
+      </c>
+      <c r="AL43">
+        <v>74.25</v>
+      </c>
+      <c r="AM43">
+        <v>74.25</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:40">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C44">
         <v>5.96</v>
@@ -4830,15 +6540,54 @@
         <v>5.94</v>
       </c>
       <c r="AA44">
+        <v>5.82</v>
+      </c>
+      <c r="AB44">
+        <v>5.82</v>
+      </c>
+      <c r="AC44">
+        <v>5.82</v>
+      </c>
+      <c r="AD44">
+        <v>5.82</v>
+      </c>
+      <c r="AE44">
+        <v>5.82</v>
+      </c>
+      <c r="AF44">
+        <v>5.82</v>
+      </c>
+      <c r="AG44">
+        <v>5.82</v>
+      </c>
+      <c r="AH44">
+        <v>5.82</v>
+      </c>
+      <c r="AI44">
+        <v>5.82</v>
+      </c>
+      <c r="AJ44">
+        <v>5.82</v>
+      </c>
+      <c r="AK44">
+        <v>5.82</v>
+      </c>
+      <c r="AL44">
+        <v>5.82</v>
+      </c>
+      <c r="AM44">
+        <v>5.82</v>
+      </c>
+      <c r="AN44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:40">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C45">
         <v>57.72</v>
@@ -4913,15 +6662,54 @@
         <v>57.6</v>
       </c>
       <c r="AA45">
+        <v>55.22</v>
+      </c>
+      <c r="AB45">
+        <v>55.22</v>
+      </c>
+      <c r="AC45">
+        <v>55.22</v>
+      </c>
+      <c r="AD45">
+        <v>55.22</v>
+      </c>
+      <c r="AE45">
+        <v>55.22</v>
+      </c>
+      <c r="AF45">
+        <v>55.22</v>
+      </c>
+      <c r="AG45">
+        <v>55.22</v>
+      </c>
+      <c r="AH45">
+        <v>55.22</v>
+      </c>
+      <c r="AI45">
+        <v>55.22</v>
+      </c>
+      <c r="AJ45">
+        <v>55.22</v>
+      </c>
+      <c r="AK45">
+        <v>55.22</v>
+      </c>
+      <c r="AL45">
+        <v>55.22</v>
+      </c>
+      <c r="AM45">
+        <v>55.22</v>
+      </c>
+      <c r="AN45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:40">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C46">
         <v>78.40000000000001</v>
@@ -4996,15 +6784,54 @@
         <v>78.3</v>
       </c>
       <c r="AA46">
+        <v>78</v>
+      </c>
+      <c r="AB46">
+        <v>78</v>
+      </c>
+      <c r="AC46">
+        <v>78</v>
+      </c>
+      <c r="AD46">
+        <v>78</v>
+      </c>
+      <c r="AE46">
+        <v>78</v>
+      </c>
+      <c r="AF46">
+        <v>78</v>
+      </c>
+      <c r="AG46">
+        <v>78</v>
+      </c>
+      <c r="AH46">
+        <v>78</v>
+      </c>
+      <c r="AI46">
+        <v>78</v>
+      </c>
+      <c r="AJ46">
+        <v>78</v>
+      </c>
+      <c r="AK46">
+        <v>78</v>
+      </c>
+      <c r="AL46">
+        <v>78</v>
+      </c>
+      <c r="AM46">
+        <v>78</v>
+      </c>
+      <c r="AN46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:40">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C47">
         <v>4.36</v>
@@ -5079,15 +6906,54 @@
         <v>4.35</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>3.99</v>
+      </c>
+      <c r="AB47">
+        <v>3.99</v>
+      </c>
+      <c r="AC47">
+        <v>3.99</v>
+      </c>
+      <c r="AD47">
+        <v>3.99</v>
+      </c>
+      <c r="AE47">
+        <v>3.99</v>
+      </c>
+      <c r="AF47">
+        <v>3.99</v>
+      </c>
+      <c r="AG47">
+        <v>3.99</v>
+      </c>
+      <c r="AH47">
+        <v>3.99</v>
+      </c>
+      <c r="AI47">
+        <v>3.99</v>
+      </c>
+      <c r="AJ47">
+        <v>3.99</v>
+      </c>
+      <c r="AK47">
+        <v>3.99</v>
+      </c>
+      <c r="AL47">
+        <v>3.99</v>
+      </c>
+      <c r="AM47">
+        <v>3.99</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:40">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C48">
         <v>32.86</v>
@@ -5162,15 +7028,54 @@
         <v>32.8</v>
       </c>
       <c r="AA48">
+        <v>34.36</v>
+      </c>
+      <c r="AB48">
+        <v>34.36</v>
+      </c>
+      <c r="AC48">
+        <v>34.36</v>
+      </c>
+      <c r="AD48">
+        <v>34.36</v>
+      </c>
+      <c r="AE48">
+        <v>34.36</v>
+      </c>
+      <c r="AF48">
+        <v>34.36</v>
+      </c>
+      <c r="AG48">
+        <v>34.36</v>
+      </c>
+      <c r="AH48">
+        <v>34.36</v>
+      </c>
+      <c r="AI48">
+        <v>34.36</v>
+      </c>
+      <c r="AJ48">
+        <v>34.36</v>
+      </c>
+      <c r="AK48">
+        <v>34.36</v>
+      </c>
+      <c r="AL48">
+        <v>34.36</v>
+      </c>
+      <c r="AM48">
+        <v>34.36</v>
+      </c>
+      <c r="AN48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:40">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C49">
         <v>27.08</v>
@@ -5245,15 +7150,54 @@
         <v>26.84</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>25.54</v>
+      </c>
+      <c r="AB49">
+        <v>25.54</v>
+      </c>
+      <c r="AC49">
+        <v>25.54</v>
+      </c>
+      <c r="AD49">
+        <v>25.54</v>
+      </c>
+      <c r="AE49">
+        <v>25.54</v>
+      </c>
+      <c r="AF49">
+        <v>25.54</v>
+      </c>
+      <c r="AG49">
+        <v>25.54</v>
+      </c>
+      <c r="AH49">
+        <v>25.54</v>
+      </c>
+      <c r="AI49">
+        <v>25.54</v>
+      </c>
+      <c r="AJ49">
+        <v>25.54</v>
+      </c>
+      <c r="AK49">
+        <v>25.54</v>
+      </c>
+      <c r="AL49">
+        <v>25.54</v>
+      </c>
+      <c r="AM49">
+        <v>25.54</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:40">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C50">
         <v>19.88</v>
@@ -5328,15 +7272,54 @@
         <v>19.77</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>15.89</v>
+      </c>
+      <c r="AB50">
+        <v>15.89</v>
+      </c>
+      <c r="AC50">
+        <v>15.89</v>
+      </c>
+      <c r="AD50">
+        <v>15.89</v>
+      </c>
+      <c r="AE50">
+        <v>15.89</v>
+      </c>
+      <c r="AF50">
+        <v>15.89</v>
+      </c>
+      <c r="AG50">
+        <v>15.89</v>
+      </c>
+      <c r="AH50">
+        <v>15.89</v>
+      </c>
+      <c r="AI50">
+        <v>15.89</v>
+      </c>
+      <c r="AJ50">
+        <v>15.89</v>
+      </c>
+      <c r="AK50">
+        <v>15.89</v>
+      </c>
+      <c r="AL50">
+        <v>15.89</v>
+      </c>
+      <c r="AM50">
+        <v>15.89</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:40">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C51">
         <v>128.9</v>
@@ -5411,15 +7394,54 @@
         <v>128.3</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>129.7</v>
+      </c>
+      <c r="AB51">
+        <v>129.7</v>
+      </c>
+      <c r="AC51">
+        <v>129.7</v>
+      </c>
+      <c r="AD51">
+        <v>129.7</v>
+      </c>
+      <c r="AE51">
+        <v>129.7</v>
+      </c>
+      <c r="AF51">
+        <v>129.7</v>
+      </c>
+      <c r="AG51">
+        <v>129.7</v>
+      </c>
+      <c r="AH51">
+        <v>129.7</v>
+      </c>
+      <c r="AI51">
+        <v>129.7</v>
+      </c>
+      <c r="AJ51">
+        <v>129.7</v>
+      </c>
+      <c r="AK51">
+        <v>129.7</v>
+      </c>
+      <c r="AL51">
+        <v>129.7</v>
+      </c>
+      <c r="AM51">
+        <v>129.7</v>
+      </c>
+      <c r="AN51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:40">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C52">
         <v>105.8</v>
@@ -5494,15 +7516,54 @@
         <v>105.4</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>103</v>
+      </c>
+      <c r="AB52">
+        <v>103</v>
+      </c>
+      <c r="AC52">
+        <v>103</v>
+      </c>
+      <c r="AD52">
+        <v>103</v>
+      </c>
+      <c r="AE52">
+        <v>103</v>
+      </c>
+      <c r="AF52">
+        <v>103</v>
+      </c>
+      <c r="AG52">
+        <v>103</v>
+      </c>
+      <c r="AH52">
+        <v>103</v>
+      </c>
+      <c r="AI52">
+        <v>103</v>
+      </c>
+      <c r="AJ52">
+        <v>103</v>
+      </c>
+      <c r="AK52">
+        <v>103</v>
+      </c>
+      <c r="AL52">
+        <v>103</v>
+      </c>
+      <c r="AM52">
+        <v>103</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:40">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C53">
         <v>16.25</v>
@@ -5577,15 +7638,54 @@
         <v>16.25</v>
       </c>
       <c r="AA53">
+        <v>16.09</v>
+      </c>
+      <c r="AB53">
+        <v>16.09</v>
+      </c>
+      <c r="AC53">
+        <v>16.09</v>
+      </c>
+      <c r="AD53">
+        <v>16.09</v>
+      </c>
+      <c r="AE53">
+        <v>16.09</v>
+      </c>
+      <c r="AF53">
+        <v>16.09</v>
+      </c>
+      <c r="AG53">
+        <v>16.09</v>
+      </c>
+      <c r="AH53">
+        <v>16.09</v>
+      </c>
+      <c r="AI53">
+        <v>16.09</v>
+      </c>
+      <c r="AJ53">
+        <v>16.09</v>
+      </c>
+      <c r="AK53">
+        <v>16.09</v>
+      </c>
+      <c r="AL53">
+        <v>16.09</v>
+      </c>
+      <c r="AM53">
+        <v>16.09</v>
+      </c>
+      <c r="AN53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:40">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C54">
         <v>1855.6</v>
@@ -5660,15 +7760,54 @@
         <v>1857.6</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <v>1832.8</v>
+      </c>
+      <c r="AB54">
+        <v>1832.8</v>
+      </c>
+      <c r="AC54">
+        <v>1832.8</v>
+      </c>
+      <c r="AD54">
+        <v>1832.8</v>
+      </c>
+      <c r="AE54">
+        <v>1832.8</v>
+      </c>
+      <c r="AF54">
+        <v>1832.8</v>
+      </c>
+      <c r="AG54">
+        <v>1832.8</v>
+      </c>
+      <c r="AH54">
+        <v>1832.8</v>
+      </c>
+      <c r="AI54">
+        <v>1832.8</v>
+      </c>
+      <c r="AJ54">
+        <v>1832.8</v>
+      </c>
+      <c r="AK54">
+        <v>1832.8</v>
+      </c>
+      <c r="AL54">
+        <v>1832.8</v>
+      </c>
+      <c r="AM54">
+        <v>1832.8</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:40">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C55">
         <v>34.4</v>
@@ -5743,15 +7882,54 @@
         <v>34.32</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>32.52</v>
+      </c>
+      <c r="AB55">
+        <v>32.52</v>
+      </c>
+      <c r="AC55">
+        <v>32.52</v>
+      </c>
+      <c r="AD55">
+        <v>32.52</v>
+      </c>
+      <c r="AE55">
+        <v>32.52</v>
+      </c>
+      <c r="AF55">
+        <v>32.52</v>
+      </c>
+      <c r="AG55">
+        <v>32.52</v>
+      </c>
+      <c r="AH55">
+        <v>32.52</v>
+      </c>
+      <c r="AI55">
+        <v>32.52</v>
+      </c>
+      <c r="AJ55">
+        <v>32.52</v>
+      </c>
+      <c r="AK55">
+        <v>32.52</v>
+      </c>
+      <c r="AL55">
+        <v>32.52</v>
+      </c>
+      <c r="AM55">
+        <v>32.52</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:40">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C56">
         <v>300.5</v>
@@ -5826,15 +8004,54 @@
         <v>300.5</v>
       </c>
       <c r="AA56">
+        <v>309</v>
+      </c>
+      <c r="AB56">
+        <v>309</v>
+      </c>
+      <c r="AC56">
+        <v>309</v>
+      </c>
+      <c r="AD56">
+        <v>309</v>
+      </c>
+      <c r="AE56">
+        <v>309</v>
+      </c>
+      <c r="AF56">
+        <v>309</v>
+      </c>
+      <c r="AG56">
+        <v>309</v>
+      </c>
+      <c r="AH56">
+        <v>309</v>
+      </c>
+      <c r="AI56">
+        <v>309</v>
+      </c>
+      <c r="AJ56">
+        <v>309</v>
+      </c>
+      <c r="AK56">
+        <v>309</v>
+      </c>
+      <c r="AL56">
+        <v>309</v>
+      </c>
+      <c r="AM56">
+        <v>309</v>
+      </c>
+      <c r="AN56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:40">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C57">
         <v>27.34</v>
@@ -5909,15 +8126,54 @@
         <v>27.22</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>25.98</v>
+      </c>
+      <c r="AB57">
+        <v>25.98</v>
+      </c>
+      <c r="AC57">
+        <v>25.98</v>
+      </c>
+      <c r="AD57">
+        <v>25.98</v>
+      </c>
+      <c r="AE57">
+        <v>25.98</v>
+      </c>
+      <c r="AF57">
+        <v>25.98</v>
+      </c>
+      <c r="AG57">
+        <v>25.98</v>
+      </c>
+      <c r="AH57">
+        <v>25.98</v>
+      </c>
+      <c r="AI57">
+        <v>25.98</v>
+      </c>
+      <c r="AJ57">
+        <v>25.98</v>
+      </c>
+      <c r="AK57">
+        <v>25.98</v>
+      </c>
+      <c r="AL57">
+        <v>25.98</v>
+      </c>
+      <c r="AM57">
+        <v>25.98</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:40">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C58">
         <v>47.4</v>
@@ -5992,15 +8248,54 @@
         <v>47.35</v>
       </c>
       <c r="AA58">
+        <v>46.3</v>
+      </c>
+      <c r="AB58">
+        <v>46.3</v>
+      </c>
+      <c r="AC58">
+        <v>46.3</v>
+      </c>
+      <c r="AD58">
+        <v>46.3</v>
+      </c>
+      <c r="AE58">
+        <v>46.3</v>
+      </c>
+      <c r="AF58">
+        <v>46.3</v>
+      </c>
+      <c r="AG58">
+        <v>46.3</v>
+      </c>
+      <c r="AH58">
+        <v>46.3</v>
+      </c>
+      <c r="AI58">
+        <v>46.3</v>
+      </c>
+      <c r="AJ58">
+        <v>46.3</v>
+      </c>
+      <c r="AK58">
+        <v>46.3</v>
+      </c>
+      <c r="AL58">
+        <v>46.3</v>
+      </c>
+      <c r="AM58">
+        <v>46.3</v>
+      </c>
+      <c r="AN58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:40">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B59" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C59">
         <v>104.6</v>
@@ -6075,15 +8370,54 @@
         <v>104</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>105.3</v>
+      </c>
+      <c r="AB59">
+        <v>105.3</v>
+      </c>
+      <c r="AC59">
+        <v>105.3</v>
+      </c>
+      <c r="AD59">
+        <v>105.3</v>
+      </c>
+      <c r="AE59">
+        <v>105.3</v>
+      </c>
+      <c r="AF59">
+        <v>105.3</v>
+      </c>
+      <c r="AG59">
+        <v>105.3</v>
+      </c>
+      <c r="AH59">
+        <v>105.3</v>
+      </c>
+      <c r="AI59">
+        <v>105.3</v>
+      </c>
+      <c r="AJ59">
+        <v>105.3</v>
+      </c>
+      <c r="AK59">
+        <v>105.3</v>
+      </c>
+      <c r="AL59">
+        <v>105.3</v>
+      </c>
+      <c r="AM59">
+        <v>105.3</v>
+      </c>
+      <c r="AN59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:40">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C60">
         <v>58.2</v>
@@ -6158,15 +8492,54 @@
         <v>58.2</v>
       </c>
       <c r="AA60">
+        <v>58.65</v>
+      </c>
+      <c r="AB60">
+        <v>58.65</v>
+      </c>
+      <c r="AC60">
+        <v>58.65</v>
+      </c>
+      <c r="AD60">
+        <v>58.65</v>
+      </c>
+      <c r="AE60">
+        <v>58.65</v>
+      </c>
+      <c r="AF60">
+        <v>58.65</v>
+      </c>
+      <c r="AG60">
+        <v>58.65</v>
+      </c>
+      <c r="AH60">
+        <v>58.65</v>
+      </c>
+      <c r="AI60">
+        <v>58.65</v>
+      </c>
+      <c r="AJ60">
+        <v>58.65</v>
+      </c>
+      <c r="AK60">
+        <v>58.65</v>
+      </c>
+      <c r="AL60">
+        <v>58.65</v>
+      </c>
+      <c r="AM60">
+        <v>58.65</v>
+      </c>
+      <c r="AN60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:40">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C61">
         <v>17.97</v>
@@ -6241,15 +8614,54 @@
         <v>17.88</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>18.16</v>
+      </c>
+      <c r="AB61">
+        <v>18.16</v>
+      </c>
+      <c r="AC61">
+        <v>18.16</v>
+      </c>
+      <c r="AD61">
+        <v>18.16</v>
+      </c>
+      <c r="AE61">
+        <v>18.16</v>
+      </c>
+      <c r="AF61">
+        <v>18.16</v>
+      </c>
+      <c r="AG61">
+        <v>18.16</v>
+      </c>
+      <c r="AH61">
+        <v>18.16</v>
+      </c>
+      <c r="AI61">
+        <v>18.16</v>
+      </c>
+      <c r="AJ61">
+        <v>18.16</v>
+      </c>
+      <c r="AK61">
+        <v>18.16</v>
+      </c>
+      <c r="AL61">
+        <v>18.16</v>
+      </c>
+      <c r="AM61">
+        <v>18.16</v>
+      </c>
+      <c r="AN61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:40">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C62">
         <v>378.55</v>
@@ -6324,15 +8736,54 @@
         <v>377.45</v>
       </c>
       <c r="AA62">
+        <v>350.5</v>
+      </c>
+      <c r="AB62">
+        <v>350.5</v>
+      </c>
+      <c r="AC62">
+        <v>350.5</v>
+      </c>
+      <c r="AD62">
+        <v>350.5</v>
+      </c>
+      <c r="AE62">
+        <v>350.5</v>
+      </c>
+      <c r="AF62">
+        <v>350.5</v>
+      </c>
+      <c r="AG62">
+        <v>350.5</v>
+      </c>
+      <c r="AH62">
+        <v>350.5</v>
+      </c>
+      <c r="AI62">
+        <v>350.5</v>
+      </c>
+      <c r="AJ62">
+        <v>350.5</v>
+      </c>
+      <c r="AK62">
+        <v>350.5</v>
+      </c>
+      <c r="AL62">
+        <v>350.5</v>
+      </c>
+      <c r="AM62">
+        <v>350.5</v>
+      </c>
+      <c r="AN62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:40">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C63">
         <v>24.67</v>
@@ -6407,15 +8858,54 @@
         <v>24.6</v>
       </c>
       <c r="AA63">
+        <v>23.67</v>
+      </c>
+      <c r="AB63">
+        <v>23.67</v>
+      </c>
+      <c r="AC63">
+        <v>23.67</v>
+      </c>
+      <c r="AD63">
+        <v>23.67</v>
+      </c>
+      <c r="AE63">
+        <v>23.67</v>
+      </c>
+      <c r="AF63">
+        <v>23.67</v>
+      </c>
+      <c r="AG63">
+        <v>23.67</v>
+      </c>
+      <c r="AH63">
+        <v>23.67</v>
+      </c>
+      <c r="AI63">
+        <v>23.67</v>
+      </c>
+      <c r="AJ63">
+        <v>23.67</v>
+      </c>
+      <c r="AK63">
+        <v>23.67</v>
+      </c>
+      <c r="AL63">
+        <v>23.67</v>
+      </c>
+      <c r="AM63">
+        <v>23.67</v>
+      </c>
+      <c r="AN63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:40">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B64" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="C64">
         <v>443.4</v>
@@ -6490,15 +8980,54 @@
         <v>442.55</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>426.2</v>
+      </c>
+      <c r="AB64">
+        <v>426.2</v>
+      </c>
+      <c r="AC64">
+        <v>426.2</v>
+      </c>
+      <c r="AD64">
+        <v>426.2</v>
+      </c>
+      <c r="AE64">
+        <v>426.2</v>
+      </c>
+      <c r="AF64">
+        <v>426.2</v>
+      </c>
+      <c r="AG64">
+        <v>426.2</v>
+      </c>
+      <c r="AH64">
+        <v>426.2</v>
+      </c>
+      <c r="AI64">
+        <v>426.2</v>
+      </c>
+      <c r="AJ64">
+        <v>426.2</v>
+      </c>
+      <c r="AK64">
+        <v>426.2</v>
+      </c>
+      <c r="AL64">
+        <v>426.2</v>
+      </c>
+      <c r="AM64">
+        <v>426.2</v>
+      </c>
+      <c r="AN64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:40">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B65" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C65">
         <v>29.4</v>
@@ -6573,15 +9102,54 @@
         <v>29.15</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>30.15</v>
+      </c>
+      <c r="AB65">
+        <v>30.15</v>
+      </c>
+      <c r="AC65">
+        <v>30.15</v>
+      </c>
+      <c r="AD65">
+        <v>30.15</v>
+      </c>
+      <c r="AE65">
+        <v>30.15</v>
+      </c>
+      <c r="AF65">
+        <v>30.15</v>
+      </c>
+      <c r="AG65">
+        <v>30.15</v>
+      </c>
+      <c r="AH65">
+        <v>30.15</v>
+      </c>
+      <c r="AI65">
+        <v>30.15</v>
+      </c>
+      <c r="AJ65">
+        <v>30.15</v>
+      </c>
+      <c r="AK65">
+        <v>30.15</v>
+      </c>
+      <c r="AL65">
+        <v>30.15</v>
+      </c>
+      <c r="AM65">
+        <v>30.15</v>
+      </c>
+      <c r="AN65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:40">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B66" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C66">
         <v>90.12</v>
@@ -6656,15 +9224,54 @@
         <v>89.88</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>89.8</v>
+      </c>
+      <c r="AB66">
+        <v>89.8</v>
+      </c>
+      <c r="AC66">
+        <v>89.8</v>
+      </c>
+      <c r="AD66">
+        <v>89.8</v>
+      </c>
+      <c r="AE66">
+        <v>89.8</v>
+      </c>
+      <c r="AF66">
+        <v>89.8</v>
+      </c>
+      <c r="AG66">
+        <v>89.8</v>
+      </c>
+      <c r="AH66">
+        <v>89.8</v>
+      </c>
+      <c r="AI66">
+        <v>89.8</v>
+      </c>
+      <c r="AJ66">
+        <v>89.8</v>
+      </c>
+      <c r="AK66">
+        <v>89.8</v>
+      </c>
+      <c r="AL66">
+        <v>89.8</v>
+      </c>
+      <c r="AM66">
+        <v>89.8</v>
+      </c>
+      <c r="AN66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:40">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B67" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C67">
         <v>679.9</v>
@@ -6739,15 +9346,54 @@
         <v>679</v>
       </c>
       <c r="AA67">
+        <v>659.4</v>
+      </c>
+      <c r="AB67">
+        <v>659.4</v>
+      </c>
+      <c r="AC67">
+        <v>659.4</v>
+      </c>
+      <c r="AD67">
+        <v>659.4</v>
+      </c>
+      <c r="AE67">
+        <v>659.4</v>
+      </c>
+      <c r="AF67">
+        <v>659.4</v>
+      </c>
+      <c r="AG67">
+        <v>659.4</v>
+      </c>
+      <c r="AH67">
+        <v>659.4</v>
+      </c>
+      <c r="AI67">
+        <v>659.4</v>
+      </c>
+      <c r="AJ67">
+        <v>659.4</v>
+      </c>
+      <c r="AK67">
+        <v>659.4</v>
+      </c>
+      <c r="AL67">
+        <v>659.4</v>
+      </c>
+      <c r="AM67">
+        <v>659.4</v>
+      </c>
+      <c r="AN67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:40">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B68" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C68">
         <v>10.18</v>
@@ -6822,15 +9468,54 @@
         <v>10.16</v>
       </c>
       <c r="AA68">
+        <v>10.5</v>
+      </c>
+      <c r="AB68">
+        <v>10.5</v>
+      </c>
+      <c r="AC68">
+        <v>10.5</v>
+      </c>
+      <c r="AD68">
+        <v>10.5</v>
+      </c>
+      <c r="AE68">
+        <v>10.5</v>
+      </c>
+      <c r="AF68">
+        <v>10.5</v>
+      </c>
+      <c r="AG68">
+        <v>10.5</v>
+      </c>
+      <c r="AH68">
+        <v>10.5</v>
+      </c>
+      <c r="AI68">
+        <v>10.5</v>
+      </c>
+      <c r="AJ68">
+        <v>10.5</v>
+      </c>
+      <c r="AK68">
+        <v>10.5</v>
+      </c>
+      <c r="AL68">
+        <v>10.5</v>
+      </c>
+      <c r="AM68">
+        <v>10.5</v>
+      </c>
+      <c r="AN68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:40">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B69" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C69">
         <v>33.7</v>
@@ -6905,15 +9590,54 @@
         <v>33.6</v>
       </c>
       <c r="AA69">
+        <v>30.8</v>
+      </c>
+      <c r="AB69">
+        <v>30.8</v>
+      </c>
+      <c r="AC69">
+        <v>30.8</v>
+      </c>
+      <c r="AD69">
+        <v>30.8</v>
+      </c>
+      <c r="AE69">
+        <v>30.8</v>
+      </c>
+      <c r="AF69">
+        <v>30.8</v>
+      </c>
+      <c r="AG69">
+        <v>30.8</v>
+      </c>
+      <c r="AH69">
+        <v>30.8</v>
+      </c>
+      <c r="AI69">
+        <v>30.8</v>
+      </c>
+      <c r="AJ69">
+        <v>30.8</v>
+      </c>
+      <c r="AK69">
+        <v>30.8</v>
+      </c>
+      <c r="AL69">
+        <v>30.8</v>
+      </c>
+      <c r="AM69">
+        <v>30.8</v>
+      </c>
+      <c r="AN69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:40">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B70" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C70">
         <v>13</v>
@@ -6988,15 +9712,54 @@
         <v>13.01</v>
       </c>
       <c r="AA70">
+        <v>12.79</v>
+      </c>
+      <c r="AB70">
+        <v>12.79</v>
+      </c>
+      <c r="AC70">
+        <v>12.79</v>
+      </c>
+      <c r="AD70">
+        <v>12.79</v>
+      </c>
+      <c r="AE70">
+        <v>12.79</v>
+      </c>
+      <c r="AF70">
+        <v>12.79</v>
+      </c>
+      <c r="AG70">
+        <v>12.79</v>
+      </c>
+      <c r="AH70">
+        <v>12.79</v>
+      </c>
+      <c r="AI70">
+        <v>12.79</v>
+      </c>
+      <c r="AJ70">
+        <v>12.79</v>
+      </c>
+      <c r="AK70">
+        <v>12.79</v>
+      </c>
+      <c r="AL70">
+        <v>12.79</v>
+      </c>
+      <c r="AM70">
+        <v>12.79</v>
+      </c>
+      <c r="AN70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:40">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C71">
         <v>31.29</v>
@@ -7071,15 +9834,54 @@
         <v>31.24</v>
       </c>
       <c r="AA71">
+        <v>30.57</v>
+      </c>
+      <c r="AB71">
+        <v>30.57</v>
+      </c>
+      <c r="AC71">
+        <v>30.57</v>
+      </c>
+      <c r="AD71">
+        <v>30.57</v>
+      </c>
+      <c r="AE71">
+        <v>30.57</v>
+      </c>
+      <c r="AF71">
+        <v>30.57</v>
+      </c>
+      <c r="AG71">
+        <v>30.57</v>
+      </c>
+      <c r="AH71">
+        <v>30.57</v>
+      </c>
+      <c r="AI71">
+        <v>30.57</v>
+      </c>
+      <c r="AJ71">
+        <v>30.57</v>
+      </c>
+      <c r="AK71">
+        <v>30.57</v>
+      </c>
+      <c r="AL71">
+        <v>30.57</v>
+      </c>
+      <c r="AM71">
+        <v>30.57</v>
+      </c>
+      <c r="AN71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:40">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C72">
         <v>27.84</v>
@@ -7154,15 +9956,54 @@
         <v>27.74</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>25.76</v>
+      </c>
+      <c r="AB72">
+        <v>25.76</v>
+      </c>
+      <c r="AC72">
+        <v>25.76</v>
+      </c>
+      <c r="AD72">
+        <v>25.76</v>
+      </c>
+      <c r="AE72">
+        <v>25.76</v>
+      </c>
+      <c r="AF72">
+        <v>25.76</v>
+      </c>
+      <c r="AG72">
+        <v>25.76</v>
+      </c>
+      <c r="AH72">
+        <v>25.76</v>
+      </c>
+      <c r="AI72">
+        <v>25.76</v>
+      </c>
+      <c r="AJ72">
+        <v>25.76</v>
+      </c>
+      <c r="AK72">
+        <v>25.76</v>
+      </c>
+      <c r="AL72">
+        <v>25.76</v>
+      </c>
+      <c r="AM72">
+        <v>25.76</v>
+      </c>
+      <c r="AN72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:40">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B73" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C73">
         <v>81.55</v>
@@ -7237,15 +10078,54 @@
         <v>81.25</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>83.25</v>
+      </c>
+      <c r="AB73">
+        <v>83.25</v>
+      </c>
+      <c r="AC73">
+        <v>83.25</v>
+      </c>
+      <c r="AD73">
+        <v>83.25</v>
+      </c>
+      <c r="AE73">
+        <v>83.25</v>
+      </c>
+      <c r="AF73">
+        <v>83.25</v>
+      </c>
+      <c r="AG73">
+        <v>83.25</v>
+      </c>
+      <c r="AH73">
+        <v>83.25</v>
+      </c>
+      <c r="AI73">
+        <v>83.25</v>
+      </c>
+      <c r="AJ73">
+        <v>83.25</v>
+      </c>
+      <c r="AK73">
+        <v>83.25</v>
+      </c>
+      <c r="AL73">
+        <v>83.25</v>
+      </c>
+      <c r="AM73">
+        <v>83.25</v>
+      </c>
+      <c r="AN73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:40">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C74">
         <v>16.91</v>
@@ -7320,15 +10200,54 @@
         <v>16.84</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>14.59</v>
+      </c>
+      <c r="AB74">
+        <v>14.59</v>
+      </c>
+      <c r="AC74">
+        <v>14.59</v>
+      </c>
+      <c r="AD74">
+        <v>14.59</v>
+      </c>
+      <c r="AE74">
+        <v>14.59</v>
+      </c>
+      <c r="AF74">
+        <v>14.59</v>
+      </c>
+      <c r="AG74">
+        <v>14.59</v>
+      </c>
+      <c r="AH74">
+        <v>14.59</v>
+      </c>
+      <c r="AI74">
+        <v>14.59</v>
+      </c>
+      <c r="AJ74">
+        <v>14.59</v>
+      </c>
+      <c r="AK74">
+        <v>14.59</v>
+      </c>
+      <c r="AL74">
+        <v>14.59</v>
+      </c>
+      <c r="AM74">
+        <v>14.59</v>
+      </c>
+      <c r="AN74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:40">
       <c r="A75" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B75" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C75">
         <v>10.63</v>
@@ -7403,15 +10322,54 @@
         <v>10.6</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>11.2</v>
+      </c>
+      <c r="AB75">
+        <v>11.2</v>
+      </c>
+      <c r="AC75">
+        <v>11.2</v>
+      </c>
+      <c r="AD75">
+        <v>11.2</v>
+      </c>
+      <c r="AE75">
+        <v>11.2</v>
+      </c>
+      <c r="AF75">
+        <v>11.2</v>
+      </c>
+      <c r="AG75">
+        <v>11.2</v>
+      </c>
+      <c r="AH75">
+        <v>11.2</v>
+      </c>
+      <c r="AI75">
+        <v>11.2</v>
+      </c>
+      <c r="AJ75">
+        <v>11.2</v>
+      </c>
+      <c r="AK75">
+        <v>11.2</v>
+      </c>
+      <c r="AL75">
+        <v>11.2</v>
+      </c>
+      <c r="AM75">
+        <v>11.2</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:40">
       <c r="A76" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B76" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C76">
         <v>0.02</v>
@@ -7486,15 +10444,54 @@
         <v>0.02</v>
       </c>
       <c r="AA76">
+        <v>0.01</v>
+      </c>
+      <c r="AB76">
+        <v>0.01</v>
+      </c>
+      <c r="AC76">
+        <v>0.01</v>
+      </c>
+      <c r="AD76">
+        <v>0.01</v>
+      </c>
+      <c r="AE76">
+        <v>0.01</v>
+      </c>
+      <c r="AF76">
+        <v>0.01</v>
+      </c>
+      <c r="AG76">
+        <v>0.01</v>
+      </c>
+      <c r="AH76">
+        <v>0.01</v>
+      </c>
+      <c r="AI76">
+        <v>0.01</v>
+      </c>
+      <c r="AJ76">
+        <v>0.01</v>
+      </c>
+      <c r="AK76">
+        <v>0.01</v>
+      </c>
+      <c r="AL76">
+        <v>0.01</v>
+      </c>
+      <c r="AM76">
+        <v>0.01</v>
+      </c>
+      <c r="AN76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:40">
       <c r="A77" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B77" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C77">
         <v>152.4</v>
@@ -7569,15 +10566,54 @@
         <v>152</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>142.15</v>
+      </c>
+      <c r="AB77">
+        <v>142.15</v>
+      </c>
+      <c r="AC77">
+        <v>142.15</v>
+      </c>
+      <c r="AD77">
+        <v>142.15</v>
+      </c>
+      <c r="AE77">
+        <v>142.15</v>
+      </c>
+      <c r="AF77">
+        <v>142.15</v>
+      </c>
+      <c r="AG77">
+        <v>142.15</v>
+      </c>
+      <c r="AH77">
+        <v>142.15</v>
+      </c>
+      <c r="AI77">
+        <v>142.15</v>
+      </c>
+      <c r="AJ77">
+        <v>142.15</v>
+      </c>
+      <c r="AK77">
+        <v>142.15</v>
+      </c>
+      <c r="AL77">
+        <v>142.15</v>
+      </c>
+      <c r="AM77">
+        <v>142.15</v>
+      </c>
+      <c r="AN77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:40">
       <c r="A78" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B78" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C78">
         <v>11.49</v>
@@ -7652,15 +10688,54 @@
         <v>11.49</v>
       </c>
       <c r="AA78">
+        <v>10.21</v>
+      </c>
+      <c r="AB78">
+        <v>10.21</v>
+      </c>
+      <c r="AC78">
+        <v>10.21</v>
+      </c>
+      <c r="AD78">
+        <v>10.21</v>
+      </c>
+      <c r="AE78">
+        <v>10.21</v>
+      </c>
+      <c r="AF78">
+        <v>10.21</v>
+      </c>
+      <c r="AG78">
+        <v>10.21</v>
+      </c>
+      <c r="AH78">
+        <v>10.21</v>
+      </c>
+      <c r="AI78">
+        <v>10.21</v>
+      </c>
+      <c r="AJ78">
+        <v>10.21</v>
+      </c>
+      <c r="AK78">
+        <v>10.21</v>
+      </c>
+      <c r="AL78">
+        <v>10.21</v>
+      </c>
+      <c r="AM78">
+        <v>10.21</v>
+      </c>
+      <c r="AN78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:40">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B79" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C79">
         <v>84.42</v>
@@ -7735,15 +10810,54 @@
         <v>84.28</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>86.81999999999999</v>
+      </c>
+      <c r="AB79">
+        <v>86.81999999999999</v>
+      </c>
+      <c r="AC79">
+        <v>86.81999999999999</v>
+      </c>
+      <c r="AD79">
+        <v>86.81999999999999</v>
+      </c>
+      <c r="AE79">
+        <v>86.81999999999999</v>
+      </c>
+      <c r="AF79">
+        <v>86.81999999999999</v>
+      </c>
+      <c r="AG79">
+        <v>86.81999999999999</v>
+      </c>
+      <c r="AH79">
+        <v>86.81999999999999</v>
+      </c>
+      <c r="AI79">
+        <v>86.81999999999999</v>
+      </c>
+      <c r="AJ79">
+        <v>86.81999999999999</v>
+      </c>
+      <c r="AK79">
+        <v>86.81999999999999</v>
+      </c>
+      <c r="AL79">
+        <v>86.81999999999999</v>
+      </c>
+      <c r="AM79">
+        <v>86.81999999999999</v>
+      </c>
+      <c r="AN79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:40">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B80" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C80">
         <v>96.88</v>
@@ -7818,15 +10932,54 @@
         <v>96.44</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>89.58</v>
+      </c>
+      <c r="AB80">
+        <v>89.58</v>
+      </c>
+      <c r="AC80">
+        <v>89.58</v>
+      </c>
+      <c r="AD80">
+        <v>89.58</v>
+      </c>
+      <c r="AE80">
+        <v>89.58</v>
+      </c>
+      <c r="AF80">
+        <v>89.58</v>
+      </c>
+      <c r="AG80">
+        <v>89.58</v>
+      </c>
+      <c r="AH80">
+        <v>89.58</v>
+      </c>
+      <c r="AI80">
+        <v>89.58</v>
+      </c>
+      <c r="AJ80">
+        <v>89.58</v>
+      </c>
+      <c r="AK80">
+        <v>89.58</v>
+      </c>
+      <c r="AL80">
+        <v>89.58</v>
+      </c>
+      <c r="AM80">
+        <v>89.58</v>
+      </c>
+      <c r="AN80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:40">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B81" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C81">
         <v>36.34</v>
@@ -7901,15 +11054,54 @@
         <v>36.07</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>34.24</v>
+      </c>
+      <c r="AB81">
+        <v>34.24</v>
+      </c>
+      <c r="AC81">
+        <v>34.24</v>
+      </c>
+      <c r="AD81">
+        <v>34.24</v>
+      </c>
+      <c r="AE81">
+        <v>34.24</v>
+      </c>
+      <c r="AF81">
+        <v>34.24</v>
+      </c>
+      <c r="AG81">
+        <v>34.24</v>
+      </c>
+      <c r="AH81">
+        <v>34.24</v>
+      </c>
+      <c r="AI81">
+        <v>34.24</v>
+      </c>
+      <c r="AJ81">
+        <v>34.24</v>
+      </c>
+      <c r="AK81">
+        <v>34.24</v>
+      </c>
+      <c r="AL81">
+        <v>34.24</v>
+      </c>
+      <c r="AM81">
+        <v>34.24</v>
+      </c>
+      <c r="AN81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:40">
       <c r="A82" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B82" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C82">
         <v>23.82</v>
@@ -7984,15 +11176,54 @@
         <v>23.72</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>23.7</v>
+      </c>
+      <c r="AB82">
+        <v>23.7</v>
+      </c>
+      <c r="AC82">
+        <v>23.7</v>
+      </c>
+      <c r="AD82">
+        <v>23.7</v>
+      </c>
+      <c r="AE82">
+        <v>23.7</v>
+      </c>
+      <c r="AF82">
+        <v>23.7</v>
+      </c>
+      <c r="AG82">
+        <v>23.7</v>
+      </c>
+      <c r="AH82">
+        <v>23.7</v>
+      </c>
+      <c r="AI82">
+        <v>23.7</v>
+      </c>
+      <c r="AJ82">
+        <v>23.7</v>
+      </c>
+      <c r="AK82">
+        <v>23.7</v>
+      </c>
+      <c r="AL82">
+        <v>23.7</v>
+      </c>
+      <c r="AM82">
+        <v>23.7</v>
+      </c>
+      <c r="AN82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:40">
       <c r="A83" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B83" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C83">
         <v>23.6</v>
@@ -8067,15 +11298,54 @@
         <v>23.46</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>22.96</v>
+      </c>
+      <c r="AB83">
+        <v>22.96</v>
+      </c>
+      <c r="AC83">
+        <v>22.96</v>
+      </c>
+      <c r="AD83">
+        <v>22.96</v>
+      </c>
+      <c r="AE83">
+        <v>22.96</v>
+      </c>
+      <c r="AF83">
+        <v>22.96</v>
+      </c>
+      <c r="AG83">
+        <v>22.96</v>
+      </c>
+      <c r="AH83">
+        <v>22.96</v>
+      </c>
+      <c r="AI83">
+        <v>22.96</v>
+      </c>
+      <c r="AJ83">
+        <v>22.96</v>
+      </c>
+      <c r="AK83">
+        <v>22.96</v>
+      </c>
+      <c r="AL83">
+        <v>22.96</v>
+      </c>
+      <c r="AM83">
+        <v>22.96</v>
+      </c>
+      <c r="AN83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:40">
       <c r="A84" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B84" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C84">
         <v>110.7</v>
@@ -8150,15 +11420,54 @@
         <v>110.7</v>
       </c>
       <c r="AA84">
+        <v>104.7</v>
+      </c>
+      <c r="AB84">
+        <v>104.7</v>
+      </c>
+      <c r="AC84">
+        <v>104.7</v>
+      </c>
+      <c r="AD84">
+        <v>104.7</v>
+      </c>
+      <c r="AE84">
+        <v>104.7</v>
+      </c>
+      <c r="AF84">
+        <v>104.7</v>
+      </c>
+      <c r="AG84">
+        <v>104.7</v>
+      </c>
+      <c r="AH84">
+        <v>104.7</v>
+      </c>
+      <c r="AI84">
+        <v>104.7</v>
+      </c>
+      <c r="AJ84">
+        <v>104.7</v>
+      </c>
+      <c r="AK84">
+        <v>104.7</v>
+      </c>
+      <c r="AL84">
+        <v>104.7</v>
+      </c>
+      <c r="AM84">
+        <v>104.7</v>
+      </c>
+      <c r="AN84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:40">
       <c r="A85" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B85" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C85">
         <v>164.78</v>
@@ -8233,15 +11542,54 @@
         <v>164.74</v>
       </c>
       <c r="AA85">
+        <v>169.84</v>
+      </c>
+      <c r="AB85">
+        <v>169.84</v>
+      </c>
+      <c r="AC85">
+        <v>169.84</v>
+      </c>
+      <c r="AD85">
+        <v>169.84</v>
+      </c>
+      <c r="AE85">
+        <v>169.84</v>
+      </c>
+      <c r="AF85">
+        <v>169.84</v>
+      </c>
+      <c r="AG85">
+        <v>169.84</v>
+      </c>
+      <c r="AH85">
+        <v>169.84</v>
+      </c>
+      <c r="AI85">
+        <v>169.84</v>
+      </c>
+      <c r="AJ85">
+        <v>169.84</v>
+      </c>
+      <c r="AK85">
+        <v>169.84</v>
+      </c>
+      <c r="AL85">
+        <v>169.84</v>
+      </c>
+      <c r="AM85">
+        <v>169.84</v>
+      </c>
+      <c r="AN85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:40">
       <c r="A86" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B86" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C86">
         <v>62.74</v>
@@ -8316,15 +11664,54 @@
         <v>62.45</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>61.81</v>
+      </c>
+      <c r="AB86">
+        <v>61.81</v>
+      </c>
+      <c r="AC86">
+        <v>61.81</v>
+      </c>
+      <c r="AD86">
+        <v>61.81</v>
+      </c>
+      <c r="AE86">
+        <v>61.81</v>
+      </c>
+      <c r="AF86">
+        <v>61.81</v>
+      </c>
+      <c r="AG86">
+        <v>61.81</v>
+      </c>
+      <c r="AH86">
+        <v>61.81</v>
+      </c>
+      <c r="AI86">
+        <v>61.81</v>
+      </c>
+      <c r="AJ86">
+        <v>61.81</v>
+      </c>
+      <c r="AK86">
+        <v>61.81</v>
+      </c>
+      <c r="AL86">
+        <v>61.81</v>
+      </c>
+      <c r="AM86">
+        <v>61.81</v>
+      </c>
+      <c r="AN86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:40">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B87" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C87">
         <v>95.48999999999999</v>
@@ -8399,15 +11786,54 @@
         <v>95.37</v>
       </c>
       <c r="AA87">
+        <v>94.04000000000001</v>
+      </c>
+      <c r="AB87">
+        <v>94.04000000000001</v>
+      </c>
+      <c r="AC87">
+        <v>94.04000000000001</v>
+      </c>
+      <c r="AD87">
+        <v>94.04000000000001</v>
+      </c>
+      <c r="AE87">
+        <v>94.04000000000001</v>
+      </c>
+      <c r="AF87">
+        <v>94.04000000000001</v>
+      </c>
+      <c r="AG87">
+        <v>94.04000000000001</v>
+      </c>
+      <c r="AH87">
+        <v>94.04000000000001</v>
+      </c>
+      <c r="AI87">
+        <v>94.04000000000001</v>
+      </c>
+      <c r="AJ87">
+        <v>94.04000000000001</v>
+      </c>
+      <c r="AK87">
+        <v>94.04000000000001</v>
+      </c>
+      <c r="AL87">
+        <v>94.04000000000001</v>
+      </c>
+      <c r="AM87">
+        <v>94.04000000000001</v>
+      </c>
+      <c r="AN87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:40">
       <c r="A88" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B88" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C88">
         <v>238</v>
@@ -8482,15 +11908,54 @@
         <v>236.4</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>221.3</v>
+      </c>
+      <c r="AB88">
+        <v>221.3</v>
+      </c>
+      <c r="AC88">
+        <v>221.3</v>
+      </c>
+      <c r="AD88">
+        <v>221.3</v>
+      </c>
+      <c r="AE88">
+        <v>221.3</v>
+      </c>
+      <c r="AF88">
+        <v>221.3</v>
+      </c>
+      <c r="AG88">
+        <v>221.3</v>
+      </c>
+      <c r="AH88">
+        <v>221.3</v>
+      </c>
+      <c r="AI88">
+        <v>221.3</v>
+      </c>
+      <c r="AJ88">
+        <v>221.3</v>
+      </c>
+      <c r="AK88">
+        <v>221.3</v>
+      </c>
+      <c r="AL88">
+        <v>221.3</v>
+      </c>
+      <c r="AM88">
+        <v>221.3</v>
+      </c>
+      <c r="AN88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:40">
       <c r="A89" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B89" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C89">
         <v>176</v>
@@ -8565,15 +12030,54 @@
         <v>175.64</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>177.5</v>
+      </c>
+      <c r="AB89">
+        <v>177.5</v>
+      </c>
+      <c r="AC89">
+        <v>177.5</v>
+      </c>
+      <c r="AD89">
+        <v>177.5</v>
+      </c>
+      <c r="AE89">
+        <v>177.5</v>
+      </c>
+      <c r="AF89">
+        <v>177.5</v>
+      </c>
+      <c r="AG89">
+        <v>177.5</v>
+      </c>
+      <c r="AH89">
+        <v>177.5</v>
+      </c>
+      <c r="AI89">
+        <v>177.5</v>
+      </c>
+      <c r="AJ89">
+        <v>177.5</v>
+      </c>
+      <c r="AK89">
+        <v>177.5</v>
+      </c>
+      <c r="AL89">
+        <v>177.5</v>
+      </c>
+      <c r="AM89">
+        <v>177.5</v>
+      </c>
+      <c r="AN89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:40">
       <c r="A90" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B90" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="C90">
         <v>26.78</v>
@@ -8648,15 +12152,54 @@
         <v>26.66</v>
       </c>
       <c r="AA90">
+        <v>27.54</v>
+      </c>
+      <c r="AB90">
+        <v>27.54</v>
+      </c>
+      <c r="AC90">
+        <v>27.54</v>
+      </c>
+      <c r="AD90">
+        <v>27.54</v>
+      </c>
+      <c r="AE90">
+        <v>27.54</v>
+      </c>
+      <c r="AF90">
+        <v>27.54</v>
+      </c>
+      <c r="AG90">
+        <v>27.54</v>
+      </c>
+      <c r="AH90">
+        <v>27.54</v>
+      </c>
+      <c r="AI90">
+        <v>27.54</v>
+      </c>
+      <c r="AJ90">
+        <v>27.54</v>
+      </c>
+      <c r="AK90">
+        <v>27.54</v>
+      </c>
+      <c r="AL90">
+        <v>27.54</v>
+      </c>
+      <c r="AM90">
+        <v>27.54</v>
+      </c>
+      <c r="AN90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:40">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B91" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C91">
         <v>6.03</v>
@@ -8731,15 +12274,54 @@
         <v>5.96</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>5.79</v>
+      </c>
+      <c r="AB91">
+        <v>5.79</v>
+      </c>
+      <c r="AC91">
+        <v>5.79</v>
+      </c>
+      <c r="AD91">
+        <v>5.79</v>
+      </c>
+      <c r="AE91">
+        <v>5.79</v>
+      </c>
+      <c r="AF91">
+        <v>5.79</v>
+      </c>
+      <c r="AG91">
+        <v>5.79</v>
+      </c>
+      <c r="AH91">
+        <v>5.79</v>
+      </c>
+      <c r="AI91">
+        <v>5.79</v>
+      </c>
+      <c r="AJ91">
+        <v>5.79</v>
+      </c>
+      <c r="AK91">
+        <v>5.79</v>
+      </c>
+      <c r="AL91">
+        <v>5.79</v>
+      </c>
+      <c r="AM91">
+        <v>5.79</v>
+      </c>
+      <c r="AN91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:40">
       <c r="A92" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B92" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C92">
         <v>122.4</v>
@@ -8814,15 +12396,54 @@
         <v>122.8</v>
       </c>
       <c r="AA92">
+        <v>121</v>
+      </c>
+      <c r="AB92">
+        <v>121</v>
+      </c>
+      <c r="AC92">
+        <v>121</v>
+      </c>
+      <c r="AD92">
+        <v>121</v>
+      </c>
+      <c r="AE92">
+        <v>121</v>
+      </c>
+      <c r="AF92">
+        <v>121</v>
+      </c>
+      <c r="AG92">
+        <v>121</v>
+      </c>
+      <c r="AH92">
+        <v>121</v>
+      </c>
+      <c r="AI92">
+        <v>121</v>
+      </c>
+      <c r="AJ92">
+        <v>121</v>
+      </c>
+      <c r="AK92">
+        <v>121</v>
+      </c>
+      <c r="AL92">
+        <v>121</v>
+      </c>
+      <c r="AM92">
+        <v>121</v>
+      </c>
+      <c r="AN92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:40">
       <c r="A93" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B93" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C93">
         <v>23.78</v>
@@ -8897,15 +12518,54 @@
         <v>23.57</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>23.14</v>
+      </c>
+      <c r="AB93">
+        <v>23.14</v>
+      </c>
+      <c r="AC93">
+        <v>23.14</v>
+      </c>
+      <c r="AD93">
+        <v>23.14</v>
+      </c>
+      <c r="AE93">
+        <v>23.14</v>
+      </c>
+      <c r="AF93">
+        <v>23.14</v>
+      </c>
+      <c r="AG93">
+        <v>23.14</v>
+      </c>
+      <c r="AH93">
+        <v>23.14</v>
+      </c>
+      <c r="AI93">
+        <v>23.14</v>
+      </c>
+      <c r="AJ93">
+        <v>23.14</v>
+      </c>
+      <c r="AK93">
+        <v>23.14</v>
+      </c>
+      <c r="AL93">
+        <v>23.14</v>
+      </c>
+      <c r="AM93">
+        <v>23.14</v>
+      </c>
+      <c r="AN93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:40">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B94" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C94">
         <v>104.7</v>
@@ -8980,15 +12640,54 @@
         <v>104.65</v>
       </c>
       <c r="AA94">
+        <v>103.25</v>
+      </c>
+      <c r="AB94">
+        <v>103.25</v>
+      </c>
+      <c r="AC94">
+        <v>103.25</v>
+      </c>
+      <c r="AD94">
+        <v>103.25</v>
+      </c>
+      <c r="AE94">
+        <v>103.25</v>
+      </c>
+      <c r="AF94">
+        <v>103.25</v>
+      </c>
+      <c r="AG94">
+        <v>103.25</v>
+      </c>
+      <c r="AH94">
+        <v>103.25</v>
+      </c>
+      <c r="AI94">
+        <v>103.25</v>
+      </c>
+      <c r="AJ94">
+        <v>103.25</v>
+      </c>
+      <c r="AK94">
+        <v>103.25</v>
+      </c>
+      <c r="AL94">
+        <v>103.25</v>
+      </c>
+      <c r="AM94">
+        <v>103.25</v>
+      </c>
+      <c r="AN94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:40">
       <c r="A95" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B95" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C95">
         <v>149.35</v>
@@ -9063,15 +12762,54 @@
         <v>149.5</v>
       </c>
       <c r="AA95">
+        <v>142.3</v>
+      </c>
+      <c r="AB95">
+        <v>142.3</v>
+      </c>
+      <c r="AC95">
+        <v>142.3</v>
+      </c>
+      <c r="AD95">
+        <v>142.3</v>
+      </c>
+      <c r="AE95">
+        <v>142.3</v>
+      </c>
+      <c r="AF95">
+        <v>142.3</v>
+      </c>
+      <c r="AG95">
+        <v>142.3</v>
+      </c>
+      <c r="AH95">
+        <v>142.3</v>
+      </c>
+      <c r="AI95">
+        <v>142.3</v>
+      </c>
+      <c r="AJ95">
+        <v>142.3</v>
+      </c>
+      <c r="AK95">
+        <v>142.3</v>
+      </c>
+      <c r="AL95">
+        <v>142.3</v>
+      </c>
+      <c r="AM95">
+        <v>142.3</v>
+      </c>
+      <c r="AN95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:40">
       <c r="A96" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B96" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C96">
         <v>2.49</v>
@@ -9146,15 +12884,54 @@
         <v>2.49</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>2.5</v>
+      </c>
+      <c r="AB96">
+        <v>2.5</v>
+      </c>
+      <c r="AC96">
+        <v>2.5</v>
+      </c>
+      <c r="AD96">
+        <v>2.5</v>
+      </c>
+      <c r="AE96">
+        <v>2.5</v>
+      </c>
+      <c r="AF96">
+        <v>2.5</v>
+      </c>
+      <c r="AG96">
+        <v>2.5</v>
+      </c>
+      <c r="AH96">
+        <v>2.5</v>
+      </c>
+      <c r="AI96">
+        <v>2.5</v>
+      </c>
+      <c r="AJ96">
+        <v>2.5</v>
+      </c>
+      <c r="AK96">
+        <v>2.5</v>
+      </c>
+      <c r="AL96">
+        <v>2.5</v>
+      </c>
+      <c r="AM96">
+        <v>2.5</v>
+      </c>
+      <c r="AN96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:40">
       <c r="A97" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B97" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="C97">
         <v>26.14</v>
@@ -9229,15 +13006,54 @@
         <v>26.02</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>24.05</v>
+      </c>
+      <c r="AB97">
+        <v>24.05</v>
+      </c>
+      <c r="AC97">
+        <v>24.05</v>
+      </c>
+      <c r="AD97">
+        <v>24.05</v>
+      </c>
+      <c r="AE97">
+        <v>24.05</v>
+      </c>
+      <c r="AF97">
+        <v>24.05</v>
+      </c>
+      <c r="AG97">
+        <v>24.05</v>
+      </c>
+      <c r="AH97">
+        <v>24.05</v>
+      </c>
+      <c r="AI97">
+        <v>24.05</v>
+      </c>
+      <c r="AJ97">
+        <v>24.05</v>
+      </c>
+      <c r="AK97">
+        <v>24.05</v>
+      </c>
+      <c r="AL97">
+        <v>24.05</v>
+      </c>
+      <c r="AM97">
+        <v>24.05</v>
+      </c>
+      <c r="AN97">
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:40">
       <c r="A98" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B98" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C98">
         <v>193.2</v>
@@ -9312,15 +13128,54 @@
         <v>193</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>192</v>
+      </c>
+      <c r="AB98">
+        <v>192</v>
+      </c>
+      <c r="AC98">
+        <v>192</v>
+      </c>
+      <c r="AD98">
+        <v>192</v>
+      </c>
+      <c r="AE98">
+        <v>192</v>
+      </c>
+      <c r="AF98">
+        <v>192</v>
+      </c>
+      <c r="AG98">
+        <v>192</v>
+      </c>
+      <c r="AH98">
+        <v>192</v>
+      </c>
+      <c r="AI98">
+        <v>192</v>
+      </c>
+      <c r="AJ98">
+        <v>192</v>
+      </c>
+      <c r="AK98">
+        <v>192</v>
+      </c>
+      <c r="AL98">
+        <v>192</v>
+      </c>
+      <c r="AM98">
+        <v>192</v>
+      </c>
+      <c r="AN98">
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:40">
       <c r="A99" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C99">
         <v>28.5</v>
@@ -9395,15 +13250,54 @@
         <v>28.42</v>
       </c>
       <c r="AA99">
+        <v>29.7</v>
+      </c>
+      <c r="AB99">
+        <v>29.7</v>
+      </c>
+      <c r="AC99">
+        <v>29.7</v>
+      </c>
+      <c r="AD99">
+        <v>29.7</v>
+      </c>
+      <c r="AE99">
+        <v>29.7</v>
+      </c>
+      <c r="AF99">
+        <v>29.7</v>
+      </c>
+      <c r="AG99">
+        <v>29.7</v>
+      </c>
+      <c r="AH99">
+        <v>29.7</v>
+      </c>
+      <c r="AI99">
+        <v>29.7</v>
+      </c>
+      <c r="AJ99">
+        <v>29.7</v>
+      </c>
+      <c r="AK99">
+        <v>29.7</v>
+      </c>
+      <c r="AL99">
+        <v>29.7</v>
+      </c>
+      <c r="AM99">
+        <v>29.7</v>
+      </c>
+      <c r="AN99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:40">
       <c r="A100" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B100" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C100">
         <v>20.95</v>
@@ -9478,15 +13372,54 @@
         <v>20.88</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>19.67</v>
+      </c>
+      <c r="AB100">
+        <v>19.67</v>
+      </c>
+      <c r="AC100">
+        <v>19.67</v>
+      </c>
+      <c r="AD100">
+        <v>19.67</v>
+      </c>
+      <c r="AE100">
+        <v>19.67</v>
+      </c>
+      <c r="AF100">
+        <v>19.67</v>
+      </c>
+      <c r="AG100">
+        <v>19.67</v>
+      </c>
+      <c r="AH100">
+        <v>19.67</v>
+      </c>
+      <c r="AI100">
+        <v>19.67</v>
+      </c>
+      <c r="AJ100">
+        <v>19.67</v>
+      </c>
+      <c r="AK100">
+        <v>19.67</v>
+      </c>
+      <c r="AL100">
+        <v>19.67</v>
+      </c>
+      <c r="AM100">
+        <v>19.67</v>
+      </c>
+      <c r="AN100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:40">
       <c r="A101" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B101" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C101">
         <v>40.39</v>
@@ -9561,15 +13494,54 @@
         <v>40.31</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>40.52</v>
+      </c>
+      <c r="AB101">
+        <v>40.52</v>
+      </c>
+      <c r="AC101">
+        <v>40.52</v>
+      </c>
+      <c r="AD101">
+        <v>40.52</v>
+      </c>
+      <c r="AE101">
+        <v>40.52</v>
+      </c>
+      <c r="AF101">
+        <v>40.52</v>
+      </c>
+      <c r="AG101">
+        <v>40.52</v>
+      </c>
+      <c r="AH101">
+        <v>40.52</v>
+      </c>
+      <c r="AI101">
+        <v>40.52</v>
+      </c>
+      <c r="AJ101">
+        <v>40.52</v>
+      </c>
+      <c r="AK101">
+        <v>40.52</v>
+      </c>
+      <c r="AL101">
+        <v>40.52</v>
+      </c>
+      <c r="AM101">
+        <v>40.52</v>
+      </c>
+      <c r="AN101">
+        <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:40">
       <c r="A102" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B102" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C102">
         <v>20.13</v>
@@ -9644,15 +13616,54 @@
         <v>20.03</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>19.41</v>
+      </c>
+      <c r="AB102">
+        <v>19.41</v>
+      </c>
+      <c r="AC102">
+        <v>19.41</v>
+      </c>
+      <c r="AD102">
+        <v>19.41</v>
+      </c>
+      <c r="AE102">
+        <v>19.41</v>
+      </c>
+      <c r="AF102">
+        <v>19.41</v>
+      </c>
+      <c r="AG102">
+        <v>19.41</v>
+      </c>
+      <c r="AH102">
+        <v>19.41</v>
+      </c>
+      <c r="AI102">
+        <v>19.41</v>
+      </c>
+      <c r="AJ102">
+        <v>19.41</v>
+      </c>
+      <c r="AK102">
+        <v>19.41</v>
+      </c>
+      <c r="AL102">
+        <v>19.41</v>
+      </c>
+      <c r="AM102">
+        <v>19.41</v>
+      </c>
+      <c r="AN102">
+        <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:40">
       <c r="A103" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B103" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C103">
         <v>134.45</v>
@@ -9727,15 +13738,54 @@
         <v>133.7</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>143.25</v>
+      </c>
+      <c r="AB103">
+        <v>143.25</v>
+      </c>
+      <c r="AC103">
+        <v>143.25</v>
+      </c>
+      <c r="AD103">
+        <v>143.25</v>
+      </c>
+      <c r="AE103">
+        <v>143.25</v>
+      </c>
+      <c r="AF103">
+        <v>143.25</v>
+      </c>
+      <c r="AG103">
+        <v>143.25</v>
+      </c>
+      <c r="AH103">
+        <v>143.25</v>
+      </c>
+      <c r="AI103">
+        <v>143.25</v>
+      </c>
+      <c r="AJ103">
+        <v>143.25</v>
+      </c>
+      <c r="AK103">
+        <v>143.25</v>
+      </c>
+      <c r="AL103">
+        <v>143.25</v>
+      </c>
+      <c r="AM103">
+        <v>143.25</v>
+      </c>
+      <c r="AN103">
+        <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:40">
       <c r="A104" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B104" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C104">
         <v>7.46</v>
@@ -9810,15 +13860,54 @@
         <v>7.39</v>
       </c>
       <c r="AA104">
+        <v>7.33</v>
+      </c>
+      <c r="AB104">
+        <v>7.33</v>
+      </c>
+      <c r="AC104">
+        <v>7.33</v>
+      </c>
+      <c r="AD104">
+        <v>7.33</v>
+      </c>
+      <c r="AE104">
+        <v>7.33</v>
+      </c>
+      <c r="AF104">
+        <v>7.33</v>
+      </c>
+      <c r="AG104">
+        <v>7.33</v>
+      </c>
+      <c r="AH104">
+        <v>7.33</v>
+      </c>
+      <c r="AI104">
+        <v>7.33</v>
+      </c>
+      <c r="AJ104">
+        <v>7.33</v>
+      </c>
+      <c r="AK104">
+        <v>7.33</v>
+      </c>
+      <c r="AL104">
+        <v>7.33</v>
+      </c>
+      <c r="AM104">
+        <v>7.33</v>
+      </c>
+      <c r="AN104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:40">
       <c r="A105" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B105" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C105">
         <v>139.55</v>
@@ -9893,15 +13982,54 @@
         <v>139.35</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>133</v>
+      </c>
+      <c r="AB105">
+        <v>133</v>
+      </c>
+      <c r="AC105">
+        <v>133</v>
+      </c>
+      <c r="AD105">
+        <v>133</v>
+      </c>
+      <c r="AE105">
+        <v>133</v>
+      </c>
+      <c r="AF105">
+        <v>133</v>
+      </c>
+      <c r="AG105">
+        <v>133</v>
+      </c>
+      <c r="AH105">
+        <v>133</v>
+      </c>
+      <c r="AI105">
+        <v>133</v>
+      </c>
+      <c r="AJ105">
+        <v>133</v>
+      </c>
+      <c r="AK105">
+        <v>133</v>
+      </c>
+      <c r="AL105">
+        <v>133</v>
+      </c>
+      <c r="AM105">
+        <v>133</v>
+      </c>
+      <c r="AN105">
+        <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:40">
       <c r="A106" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B106" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C106">
         <v>60.13</v>
@@ -9976,15 +14104,54 @@
         <v>59.58</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>58.28</v>
+      </c>
+      <c r="AB106">
+        <v>58.28</v>
+      </c>
+      <c r="AC106">
+        <v>58.28</v>
+      </c>
+      <c r="AD106">
+        <v>58.28</v>
+      </c>
+      <c r="AE106">
+        <v>58.28</v>
+      </c>
+      <c r="AF106">
+        <v>58.28</v>
+      </c>
+      <c r="AG106">
+        <v>58.28</v>
+      </c>
+      <c r="AH106">
+        <v>58.28</v>
+      </c>
+      <c r="AI106">
+        <v>58.28</v>
+      </c>
+      <c r="AJ106">
+        <v>58.28</v>
+      </c>
+      <c r="AK106">
+        <v>58.28</v>
+      </c>
+      <c r="AL106">
+        <v>58.28</v>
+      </c>
+      <c r="AM106">
+        <v>58.28</v>
+      </c>
+      <c r="AN106">
+        <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:40">
       <c r="A107" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B107" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C107">
         <v>142.4</v>
@@ -10059,15 +14226,54 @@
         <v>142.8</v>
       </c>
       <c r="AA107">
+        <v>141.2</v>
+      </c>
+      <c r="AB107">
+        <v>141.2</v>
+      </c>
+      <c r="AC107">
+        <v>141.2</v>
+      </c>
+      <c r="AD107">
+        <v>141.2</v>
+      </c>
+      <c r="AE107">
+        <v>141.2</v>
+      </c>
+      <c r="AF107">
+        <v>141.2</v>
+      </c>
+      <c r="AG107">
+        <v>141.2</v>
+      </c>
+      <c r="AH107">
+        <v>141.2</v>
+      </c>
+      <c r="AI107">
+        <v>141.2</v>
+      </c>
+      <c r="AJ107">
+        <v>141.2</v>
+      </c>
+      <c r="AK107">
+        <v>141.2</v>
+      </c>
+      <c r="AL107">
+        <v>141.2</v>
+      </c>
+      <c r="AM107">
+        <v>141.2</v>
+      </c>
+      <c r="AN107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:40">
       <c r="A108" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B108" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C108">
         <v>22.2</v>
@@ -10142,15 +14348,54 @@
         <v>22.17</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>19.82</v>
+      </c>
+      <c r="AB108">
+        <v>19.82</v>
+      </c>
+      <c r="AC108">
+        <v>19.82</v>
+      </c>
+      <c r="AD108">
+        <v>19.82</v>
+      </c>
+      <c r="AE108">
+        <v>19.82</v>
+      </c>
+      <c r="AF108">
+        <v>19.82</v>
+      </c>
+      <c r="AG108">
+        <v>19.82</v>
+      </c>
+      <c r="AH108">
+        <v>19.82</v>
+      </c>
+      <c r="AI108">
+        <v>19.82</v>
+      </c>
+      <c r="AJ108">
+        <v>19.82</v>
+      </c>
+      <c r="AK108">
+        <v>19.82</v>
+      </c>
+      <c r="AL108">
+        <v>19.82</v>
+      </c>
+      <c r="AM108">
+        <v>19.82</v>
+      </c>
+      <c r="AN108">
+        <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:40">
       <c r="A109" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B109" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C109">
         <v>65.76000000000001</v>
@@ -10225,15 +14470,54 @@
         <v>65.76000000000001</v>
       </c>
       <c r="AA109">
+        <v>64.73999999999999</v>
+      </c>
+      <c r="AB109">
+        <v>64.73999999999999</v>
+      </c>
+      <c r="AC109">
+        <v>64.73999999999999</v>
+      </c>
+      <c r="AD109">
+        <v>64.73999999999999</v>
+      </c>
+      <c r="AE109">
+        <v>64.73999999999999</v>
+      </c>
+      <c r="AF109">
+        <v>64.73999999999999</v>
+      </c>
+      <c r="AG109">
+        <v>64.73999999999999</v>
+      </c>
+      <c r="AH109">
+        <v>64.73999999999999</v>
+      </c>
+      <c r="AI109">
+        <v>64.73999999999999</v>
+      </c>
+      <c r="AJ109">
+        <v>64.73999999999999</v>
+      </c>
+      <c r="AK109">
+        <v>64.73999999999999</v>
+      </c>
+      <c r="AL109">
+        <v>64.73999999999999</v>
+      </c>
+      <c r="AM109">
+        <v>64.73999999999999</v>
+      </c>
+      <c r="AN109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:40">
       <c r="A110" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B110" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C110">
         <v>13.27</v>
@@ -10308,15 +14592,54 @@
         <v>13.21</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>11.59</v>
+      </c>
+      <c r="AB110">
+        <v>11.59</v>
+      </c>
+      <c r="AC110">
+        <v>11.59</v>
+      </c>
+      <c r="AD110">
+        <v>11.59</v>
+      </c>
+      <c r="AE110">
+        <v>11.59</v>
+      </c>
+      <c r="AF110">
+        <v>11.59</v>
+      </c>
+      <c r="AG110">
+        <v>11.59</v>
+      </c>
+      <c r="AH110">
+        <v>11.59</v>
+      </c>
+      <c r="AI110">
+        <v>11.59</v>
+      </c>
+      <c r="AJ110">
+        <v>11.59</v>
+      </c>
+      <c r="AK110">
+        <v>11.59</v>
+      </c>
+      <c r="AL110">
+        <v>11.59</v>
+      </c>
+      <c r="AM110">
+        <v>11.59</v>
+      </c>
+      <c r="AN110">
+        <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:40">
       <c r="A111" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B111" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C111">
         <v>13.51</v>
@@ -10391,15 +14714,54 @@
         <v>13.35</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>13.73</v>
+      </c>
+      <c r="AB111">
+        <v>13.73</v>
+      </c>
+      <c r="AC111">
+        <v>13.73</v>
+      </c>
+      <c r="AD111">
+        <v>13.73</v>
+      </c>
+      <c r="AE111">
+        <v>13.73</v>
+      </c>
+      <c r="AF111">
+        <v>13.73</v>
+      </c>
+      <c r="AG111">
+        <v>13.73</v>
+      </c>
+      <c r="AH111">
+        <v>13.73</v>
+      </c>
+      <c r="AI111">
+        <v>13.73</v>
+      </c>
+      <c r="AJ111">
+        <v>13.73</v>
+      </c>
+      <c r="AK111">
+        <v>13.73</v>
+      </c>
+      <c r="AL111">
+        <v>13.73</v>
+      </c>
+      <c r="AM111">
+        <v>13.73</v>
+      </c>
+      <c r="AN111">
+        <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:40">
       <c r="A112" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B112" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C112">
         <v>4.49</v>
@@ -10474,15 +14836,54 @@
         <v>4.47</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>4.01</v>
+      </c>
+      <c r="AB112">
+        <v>4.01</v>
+      </c>
+      <c r="AC112">
+        <v>4.01</v>
+      </c>
+      <c r="AD112">
+        <v>4.01</v>
+      </c>
+      <c r="AE112">
+        <v>4.01</v>
+      </c>
+      <c r="AF112">
+        <v>4.01</v>
+      </c>
+      <c r="AG112">
+        <v>4.01</v>
+      </c>
+      <c r="AH112">
+        <v>4.01</v>
+      </c>
+      <c r="AI112">
+        <v>4.01</v>
+      </c>
+      <c r="AJ112">
+        <v>4.01</v>
+      </c>
+      <c r="AK112">
+        <v>4.01</v>
+      </c>
+      <c r="AL112">
+        <v>4.01</v>
+      </c>
+      <c r="AM112">
+        <v>4.01</v>
+      </c>
+      <c r="AN112">
+        <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:40">
       <c r="A113" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B113" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C113">
         <v>28.9</v>
@@ -10557,15 +14958,54 @@
         <v>28.83</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>28.59</v>
+      </c>
+      <c r="AB113">
+        <v>28.59</v>
+      </c>
+      <c r="AC113">
+        <v>28.59</v>
+      </c>
+      <c r="AD113">
+        <v>28.59</v>
+      </c>
+      <c r="AE113">
+        <v>28.59</v>
+      </c>
+      <c r="AF113">
+        <v>28.59</v>
+      </c>
+      <c r="AG113">
+        <v>28.59</v>
+      </c>
+      <c r="AH113">
+        <v>28.59</v>
+      </c>
+      <c r="AI113">
+        <v>28.59</v>
+      </c>
+      <c r="AJ113">
+        <v>28.59</v>
+      </c>
+      <c r="AK113">
+        <v>28.59</v>
+      </c>
+      <c r="AL113">
+        <v>28.59</v>
+      </c>
+      <c r="AM113">
+        <v>28.59</v>
+      </c>
+      <c r="AN113">
+        <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:40">
       <c r="A114" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B114" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C114">
         <v>33.2</v>
@@ -10640,15 +15080,54 @@
         <v>33.18</v>
       </c>
       <c r="AA114">
+        <v>31.24</v>
+      </c>
+      <c r="AB114">
+        <v>31.24</v>
+      </c>
+      <c r="AC114">
+        <v>31.24</v>
+      </c>
+      <c r="AD114">
+        <v>31.24</v>
+      </c>
+      <c r="AE114">
+        <v>31.24</v>
+      </c>
+      <c r="AF114">
+        <v>31.24</v>
+      </c>
+      <c r="AG114">
+        <v>31.24</v>
+      </c>
+      <c r="AH114">
+        <v>31.24</v>
+      </c>
+      <c r="AI114">
+        <v>31.24</v>
+      </c>
+      <c r="AJ114">
+        <v>31.24</v>
+      </c>
+      <c r="AK114">
+        <v>31.24</v>
+      </c>
+      <c r="AL114">
+        <v>31.24</v>
+      </c>
+      <c r="AM114">
+        <v>31.24</v>
+      </c>
+      <c r="AN114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:40">
       <c r="A115" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B115" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="C115">
         <v>115.3</v>
@@ -10723,15 +15202,54 @@
         <v>114.92</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>116.74</v>
+      </c>
+      <c r="AB115">
+        <v>116.74</v>
+      </c>
+      <c r="AC115">
+        <v>116.74</v>
+      </c>
+      <c r="AD115">
+        <v>116.74</v>
+      </c>
+      <c r="AE115">
+        <v>116.74</v>
+      </c>
+      <c r="AF115">
+        <v>116.74</v>
+      </c>
+      <c r="AG115">
+        <v>116.74</v>
+      </c>
+      <c r="AH115">
+        <v>116.74</v>
+      </c>
+      <c r="AI115">
+        <v>116.74</v>
+      </c>
+      <c r="AJ115">
+        <v>116.74</v>
+      </c>
+      <c r="AK115">
+        <v>116.74</v>
+      </c>
+      <c r="AL115">
+        <v>116.74</v>
+      </c>
+      <c r="AM115">
+        <v>116.74</v>
+      </c>
+      <c r="AN115">
+        <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:40">
       <c r="A116" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B116" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C116">
         <v>352</v>
@@ -10806,15 +15324,54 @@
         <v>352</v>
       </c>
       <c r="AA116">
+        <v>333.5</v>
+      </c>
+      <c r="AB116">
+        <v>333.5</v>
+      </c>
+      <c r="AC116">
+        <v>333.5</v>
+      </c>
+      <c r="AD116">
+        <v>333.5</v>
+      </c>
+      <c r="AE116">
+        <v>333.5</v>
+      </c>
+      <c r="AF116">
+        <v>333.5</v>
+      </c>
+      <c r="AG116">
+        <v>333.5</v>
+      </c>
+      <c r="AH116">
+        <v>333.5</v>
+      </c>
+      <c r="AI116">
+        <v>333.5</v>
+      </c>
+      <c r="AJ116">
+        <v>333.5</v>
+      </c>
+      <c r="AK116">
+        <v>333.5</v>
+      </c>
+      <c r="AL116">
+        <v>333.5</v>
+      </c>
+      <c r="AM116">
+        <v>333.5</v>
+      </c>
+      <c r="AN116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:40">
       <c r="A117" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B117" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C117">
         <v>9.81</v>
@@ -10889,15 +15446,54 @@
         <v>9.789999999999999</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>9.81</v>
+      </c>
+      <c r="AB117">
+        <v>9.81</v>
+      </c>
+      <c r="AC117">
+        <v>9.81</v>
+      </c>
+      <c r="AD117">
+        <v>9.81</v>
+      </c>
+      <c r="AE117">
+        <v>9.81</v>
+      </c>
+      <c r="AF117">
+        <v>9.81</v>
+      </c>
+      <c r="AG117">
+        <v>9.81</v>
+      </c>
+      <c r="AH117">
+        <v>9.81</v>
+      </c>
+      <c r="AI117">
+        <v>9.81</v>
+      </c>
+      <c r="AJ117">
+        <v>9.81</v>
+      </c>
+      <c r="AK117">
+        <v>9.81</v>
+      </c>
+      <c r="AL117">
+        <v>9.81</v>
+      </c>
+      <c r="AM117">
+        <v>9.81</v>
+      </c>
+      <c r="AN117">
+        <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:40">
       <c r="A118" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B118" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C118">
         <v>8.869999999999999</v>
@@ -10972,15 +15568,54 @@
         <v>8.859999999999999</v>
       </c>
       <c r="AA118">
+        <v>7.56</v>
+      </c>
+      <c r="AB118">
+        <v>7.56</v>
+      </c>
+      <c r="AC118">
+        <v>7.56</v>
+      </c>
+      <c r="AD118">
+        <v>7.56</v>
+      </c>
+      <c r="AE118">
+        <v>7.56</v>
+      </c>
+      <c r="AF118">
+        <v>7.56</v>
+      </c>
+      <c r="AG118">
+        <v>7.56</v>
+      </c>
+      <c r="AH118">
+        <v>7.56</v>
+      </c>
+      <c r="AI118">
+        <v>7.56</v>
+      </c>
+      <c r="AJ118">
+        <v>7.56</v>
+      </c>
+      <c r="AK118">
+        <v>7.56</v>
+      </c>
+      <c r="AL118">
+        <v>7.56</v>
+      </c>
+      <c r="AM118">
+        <v>7.56</v>
+      </c>
+      <c r="AN118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:40">
       <c r="A119" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B119" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="C119">
         <v>80.90000000000001</v>
@@ -11055,15 +15690,54 @@
         <v>80.7</v>
       </c>
       <c r="AA119">
+        <v>79.3</v>
+      </c>
+      <c r="AB119">
+        <v>79.3</v>
+      </c>
+      <c r="AC119">
+        <v>79.3</v>
+      </c>
+      <c r="AD119">
+        <v>79.3</v>
+      </c>
+      <c r="AE119">
+        <v>79.3</v>
+      </c>
+      <c r="AF119">
+        <v>79.3</v>
+      </c>
+      <c r="AG119">
+        <v>79.3</v>
+      </c>
+      <c r="AH119">
+        <v>79.3</v>
+      </c>
+      <c r="AI119">
+        <v>79.3</v>
+      </c>
+      <c r="AJ119">
+        <v>79.3</v>
+      </c>
+      <c r="AK119">
+        <v>79.3</v>
+      </c>
+      <c r="AL119">
+        <v>79.3</v>
+      </c>
+      <c r="AM119">
+        <v>79.3</v>
+      </c>
+      <c r="AN119">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:40">
       <c r="A120" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B120" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C120">
         <v>14.38</v>
@@ -11138,98 +15812,54 @@
         <v>14.29</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>13.12</v>
+      </c>
+      <c r="AB120">
+        <v>13.12</v>
+      </c>
+      <c r="AC120">
+        <v>13.12</v>
+      </c>
+      <c r="AD120">
+        <v>13.12</v>
+      </c>
+      <c r="AE120">
+        <v>13.12</v>
+      </c>
+      <c r="AF120">
+        <v>13.12</v>
+      </c>
+      <c r="AG120">
+        <v>13.12</v>
+      </c>
+      <c r="AH120">
+        <v>13.12</v>
+      </c>
+      <c r="AI120">
+        <v>13.12</v>
+      </c>
+      <c r="AJ120">
+        <v>13.12</v>
+      </c>
+      <c r="AK120">
+        <v>13.12</v>
+      </c>
+      <c r="AL120">
+        <v>13.12</v>
+      </c>
+      <c r="AM120">
+        <v>13.12</v>
+      </c>
+      <c r="AN120">
+        <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:27">
-      <c r="A121" t="s">
-        <v>146</v>
-      </c>
-      <c r="B121" t="s">
-        <v>266</v>
-      </c>
-      <c r="C121">
-        <v>9.15</v>
-      </c>
-      <c r="D121">
-        <v>9.15</v>
-      </c>
-      <c r="E121">
-        <v>9.17</v>
-      </c>
-      <c r="F121">
-        <v>9.16</v>
-      </c>
-      <c r="G121">
-        <v>9.16</v>
-      </c>
-      <c r="H121">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="I121">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J121">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K121">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L121">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="M121">
-        <v>9.23</v>
-      </c>
-      <c r="N121">
-        <v>9.23</v>
-      </c>
-      <c r="O121">
-        <v>9.23</v>
-      </c>
-      <c r="P121">
-        <v>9.25</v>
-      </c>
-      <c r="Q121">
-        <v>9.23</v>
-      </c>
-      <c r="R121">
-        <v>9.23</v>
-      </c>
-      <c r="S121">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="T121">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="U121">
-        <v>9.26</v>
-      </c>
-      <c r="V121">
-        <v>9.26</v>
-      </c>
-      <c r="W121">
-        <v>9.26</v>
-      </c>
-      <c r="X121">
-        <v>9.23</v>
-      </c>
-      <c r="Y121">
-        <v>9.23</v>
-      </c>
-      <c r="Z121">
-        <v>9.23</v>
-      </c>
-      <c r="AA121">
+    <row r="121" spans="1:40">
+      <c r="AM121" t="s">
+        <v>278</v>
+      </c>
+      <c r="AN121">
         <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:27">
-      <c r="Z122" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA122">
-        <v>-68</v>
       </c>
     </row>
   </sheetData>

--- a/files/SBF_120_Snapshot.xlsx
+++ b/files/SBF_120_Snapshot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t>Component</t>
   </si>
@@ -22,13 +22,16 @@
     <t>ISIN</t>
   </si>
   <si>
-    <t>3m (30 Jan 3034 - 39:39 UTC)</t>
-  </si>
-  <si>
-    <t>2m (20 Jan 2024 - 29:20 UTC)</t>
-  </si>
-  <si>
-    <t>1m (20 Jan 2024 - 19:21 UTC)</t>
+    <t>4m (30 Jan 3034 - 39:39 UTC)</t>
+  </si>
+  <si>
+    <t>3m (20 Jan 2024 - 29:20 UTC)</t>
+  </si>
+  <si>
+    <t>2m (20 Jan 2024 - 19:21 UTC)</t>
+  </si>
+  <si>
+    <t>1m (22 Jan 2024 - 17:11 UTC)</t>
   </si>
   <si>
     <t>TREND</t>
@@ -1112,13 +1115,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1137,13 +1140,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C2">
         <v>35.98</v>
@@ -1155,15 +1161,18 @@
         <v>35.98</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>36.04</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C3">
         <v>114.7</v>
@@ -1175,15 +1184,18 @@
         <v>114.7</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>118.1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4">
         <v>11.55</v>
@@ -1195,15 +1207,18 @@
         <v>11.55</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>11.49</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5">
         <v>173.02</v>
@@ -1215,15 +1230,18 @@
         <v>173.02</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>172.76</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C6">
         <v>148.84</v>
@@ -1235,15 +1253,18 @@
         <v>148.84</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>150.04</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7">
         <v>5.61</v>
@@ -1255,15 +1276,18 @@
         <v>5.61</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>5.71</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C8">
         <v>10.96</v>
@@ -1275,15 +1299,18 @@
         <v>10.96</v>
       </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>11.46</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9">
         <v>133.1</v>
@@ -1295,15 +1322,18 @@
         <v>133.1</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>137.8</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10">
         <v>62</v>
@@ -1315,15 +1345,18 @@
         <v>62</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>62.85</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11">
         <v>28.85</v>
@@ -1335,15 +1368,18 @@
         <v>28.85</v>
       </c>
       <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>29.22</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C12">
         <v>24.18</v>
@@ -1355,15 +1391,18 @@
         <v>24.18</v>
       </c>
       <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>24.61</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13">
         <v>82.7</v>
@@ -1375,15 +1414,18 @@
         <v>82.7</v>
       </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>81.3</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14">
         <v>99.44</v>
@@ -1395,15 +1437,18 @@
         <v>99.44</v>
       </c>
       <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>99.3</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15">
         <v>3.41</v>
@@ -1415,15 +1460,18 @@
         <v>3.41</v>
       </c>
       <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>3.77</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C16">
         <v>30.57</v>
@@ -1435,15 +1483,18 @@
         <v>30.57</v>
       </c>
       <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>30.71</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C17">
         <v>11.1</v>
@@ -1455,15 +1506,18 @@
         <v>11.1</v>
       </c>
       <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>11.02</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18">
         <v>63.9</v>
@@ -1475,15 +1529,18 @@
         <v>63.9</v>
       </c>
       <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>64.55</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C19">
         <v>101.75</v>
@@ -1495,15 +1552,18 @@
         <v>101.75</v>
       </c>
       <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>102.2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C20">
         <v>60.61</v>
@@ -1515,15 +1575,18 @@
         <v>60.61</v>
       </c>
       <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>61.53</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C21">
         <v>5.64</v>
@@ -1535,15 +1598,18 @@
         <v>5.64</v>
       </c>
       <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>5.76</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C22">
         <v>34.68</v>
@@ -1555,15 +1621,18 @@
         <v>34.68</v>
       </c>
       <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>35.24</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C23">
         <v>23.85</v>
@@ -1575,15 +1644,18 @@
         <v>23.85</v>
       </c>
       <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>23.92</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C24">
         <v>197.05</v>
@@ -1595,15 +1667,18 @@
         <v>197.05</v>
       </c>
       <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>202</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C25">
         <v>16.18</v>
@@ -1615,15 +1690,18 @@
         <v>16.18</v>
       </c>
       <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>16.24</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C26">
         <v>15.61</v>
@@ -1635,15 +1713,18 @@
         <v>15.61</v>
       </c>
       <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>15.92</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C27">
         <v>0.44</v>
@@ -1655,15 +1736,18 @@
         <v>0.44</v>
       </c>
       <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.46</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C28">
         <v>2.09</v>
@@ -1675,15 +1759,18 @@
         <v>2.09</v>
       </c>
       <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>2.14</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C29">
         <v>12.66</v>
@@ -1695,15 +1782,18 @@
         <v>12.66</v>
       </c>
       <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>12.85</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C30">
         <v>45.02</v>
@@ -1715,15 +1805,18 @@
         <v>45.02</v>
       </c>
       <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>45.4</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C31">
         <v>13.23</v>
@@ -1735,15 +1828,18 @@
         <v>13.23</v>
       </c>
       <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>13.3</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C32">
         <v>61.6</v>
@@ -1755,15 +1851,18 @@
         <v>61.6</v>
       </c>
       <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>61.6</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C33">
         <v>171</v>
@@ -1775,15 +1874,18 @@
         <v>171</v>
       </c>
       <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>173</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C34">
         <v>46.15</v>
@@ -1795,15 +1897,18 @@
         <v>46.15</v>
       </c>
       <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>47.13</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C35">
         <v>4.67</v>
@@ -1815,15 +1920,18 @@
         <v>4.67</v>
       </c>
       <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>4.73</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C36">
         <v>57.72</v>
@@ -1835,15 +1943,18 @@
         <v>57.72</v>
       </c>
       <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>58.62</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C37">
         <v>96.52</v>
@@ -1855,15 +1966,18 @@
         <v>96.52</v>
       </c>
       <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>98.78</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C38">
         <v>2.74</v>
@@ -1875,15 +1989,18 @@
         <v>2.74</v>
       </c>
       <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>2.7</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C39">
         <v>19.5</v>
@@ -1895,15 +2012,18 @@
         <v>19.5</v>
       </c>
       <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>19.66</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C40">
         <v>15.55</v>
@@ -1915,15 +2035,18 @@
         <v>15.55</v>
       </c>
       <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>15.63</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C41">
         <v>61.95</v>
@@ -1935,15 +2058,18 @@
         <v>61.95</v>
       </c>
       <c r="F41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>60.5</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C42">
         <v>177.68</v>
@@ -1955,15 +2081,18 @@
         <v>177.68</v>
       </c>
       <c r="F42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>178.12</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C43">
         <v>74.25</v>
@@ -1975,15 +2104,18 @@
         <v>74.25</v>
       </c>
       <c r="F43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>74.75</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C44">
         <v>5.82</v>
@@ -1995,15 +2127,18 @@
         <v>5.82</v>
       </c>
       <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>6.19</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C45">
         <v>55.22</v>
@@ -2015,15 +2150,18 @@
         <v>55.22</v>
       </c>
       <c r="F45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>55.76</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C46">
         <v>78</v>
@@ -2035,15 +2173,18 @@
         <v>78</v>
       </c>
       <c r="F46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>78.84999999999999</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C47">
         <v>3.99</v>
@@ -2055,15 +2196,18 @@
         <v>3.99</v>
       </c>
       <c r="F47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>4.1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C48">
         <v>34.36</v>
@@ -2075,15 +2219,18 @@
         <v>34.36</v>
       </c>
       <c r="F48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>36.5</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C49">
         <v>25.54</v>
@@ -2095,15 +2242,18 @@
         <v>25.54</v>
       </c>
       <c r="F49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>23.94</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C50">
         <v>15.89</v>
@@ -2115,15 +2265,18 @@
         <v>15.89</v>
       </c>
       <c r="F50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>16.11</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C51">
         <v>129.7</v>
@@ -2135,15 +2288,18 @@
         <v>129.7</v>
       </c>
       <c r="F51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>129</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C52">
         <v>103</v>
@@ -2155,15 +2311,18 @@
         <v>103</v>
       </c>
       <c r="F52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>104</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C53">
         <v>16.09</v>
@@ -2175,15 +2334,18 @@
         <v>16.09</v>
       </c>
       <c r="F53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>16.42</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C54">
         <v>1832.8</v>
@@ -2195,15 +2357,18 @@
         <v>1832.8</v>
       </c>
       <c r="F54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>1836</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C55">
         <v>32.52</v>
@@ -2215,15 +2380,18 @@
         <v>32.52</v>
       </c>
       <c r="F55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>32.42</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C56">
         <v>309</v>
@@ -2235,15 +2403,18 @@
         <v>309</v>
       </c>
       <c r="F56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>313</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C57">
         <v>25.98</v>
@@ -2255,15 +2426,18 @@
         <v>25.98</v>
       </c>
       <c r="F57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C58">
         <v>46.3</v>
@@ -2275,15 +2449,18 @@
         <v>46.3</v>
       </c>
       <c r="F58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>46.7</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C59">
         <v>105.3</v>
@@ -2295,15 +2472,18 @@
         <v>105.3</v>
       </c>
       <c r="F59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>106.6</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C60">
         <v>58.65</v>
@@ -2315,15 +2495,18 @@
         <v>58.65</v>
       </c>
       <c r="F60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C61">
         <v>18.16</v>
@@ -2335,15 +2518,18 @@
         <v>18.16</v>
       </c>
       <c r="F61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>17.18</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C62">
         <v>350.5</v>
@@ -2355,15 +2541,18 @@
         <v>350.5</v>
       </c>
       <c r="F62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>353.85</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C63">
         <v>23.67</v>
@@ -2375,15 +2564,18 @@
         <v>23.67</v>
       </c>
       <c r="F63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>23.66</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C64">
         <v>426.2</v>
@@ -2395,15 +2587,18 @@
         <v>426.2</v>
       </c>
       <c r="F64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>424.75</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C65">
         <v>30.15</v>
@@ -2415,15 +2610,18 @@
         <v>30.15</v>
       </c>
       <c r="F65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>32.4</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C66">
         <v>89.8</v>
@@ -2435,15 +2633,18 @@
         <v>89.8</v>
       </c>
       <c r="F66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>91.2</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C67">
         <v>659.4</v>
@@ -2455,15 +2656,18 @@
         <v>659.4</v>
       </c>
       <c r="F67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>662.9</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C68">
         <v>10.5</v>
@@ -2475,15 +2679,18 @@
         <v>10.5</v>
       </c>
       <c r="F68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>10.65</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C69">
         <v>30.8</v>
@@ -2495,15 +2702,18 @@
         <v>30.8</v>
       </c>
       <c r="F69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>31.1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C70">
         <v>12.79</v>
@@ -2515,15 +2725,18 @@
         <v>12.79</v>
       </c>
       <c r="F70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>12.89</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C71">
         <v>30.57</v>
@@ -2535,15 +2748,18 @@
         <v>30.57</v>
       </c>
       <c r="F71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>30.85</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C72">
         <v>25.76</v>
@@ -2555,15 +2771,18 @@
         <v>25.76</v>
       </c>
       <c r="F72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>26.32</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C73">
         <v>83.25</v>
@@ -2575,15 +2794,18 @@
         <v>83.25</v>
       </c>
       <c r="F73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>85.95</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C74">
         <v>14.59</v>
@@ -2595,15 +2817,18 @@
         <v>14.59</v>
       </c>
       <c r="F74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>14.66</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C75">
         <v>11.2</v>
@@ -2615,15 +2840,18 @@
         <v>11.2</v>
       </c>
       <c r="F75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>11.23</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C76">
         <v>0.01</v>
@@ -2635,15 +2863,18 @@
         <v>0.01</v>
       </c>
       <c r="F76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.01</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C77">
         <v>142.15</v>
@@ -2655,15 +2886,18 @@
         <v>142.15</v>
       </c>
       <c r="F77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>140.8</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C78">
         <v>10.21</v>
@@ -2675,15 +2909,18 @@
         <v>10.21</v>
       </c>
       <c r="F78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>10.44</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C79">
         <v>86.81999999999999</v>
@@ -2695,15 +2932,18 @@
         <v>86.81999999999999</v>
       </c>
       <c r="F79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>88.42</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C80">
         <v>89.58</v>
@@ -2715,15 +2955,18 @@
         <v>89.58</v>
       </c>
       <c r="F80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>88.23999999999999</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C81">
         <v>34.24</v>
@@ -2735,15 +2978,18 @@
         <v>34.24</v>
       </c>
       <c r="F81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>34.63</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C82">
         <v>23.7</v>
@@ -2755,15 +3001,18 @@
         <v>23.7</v>
       </c>
       <c r="F82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>24.44</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C83">
         <v>22.96</v>
@@ -2775,15 +3024,18 @@
         <v>22.96</v>
       </c>
       <c r="F83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>23.32</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C84">
         <v>104.7</v>
@@ -2795,15 +3047,18 @@
         <v>104.7</v>
       </c>
       <c r="F84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>106</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C85">
         <v>169.84</v>
@@ -2815,15 +3070,18 @@
         <v>169.84</v>
       </c>
       <c r="F85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>172</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C86">
         <v>61.81</v>
@@ -2835,15 +3093,18 @@
         <v>61.81</v>
       </c>
       <c r="F86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>62.43</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C87">
         <v>94.04000000000001</v>
@@ -2855,15 +3116,18 @@
         <v>94.04000000000001</v>
       </c>
       <c r="F87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>94.2</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C88">
         <v>221.3</v>
@@ -2875,15 +3139,18 @@
         <v>221.3</v>
       </c>
       <c r="F88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>224.3</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C89">
         <v>177.5</v>
@@ -2895,15 +3162,18 @@
         <v>177.5</v>
       </c>
       <c r="F89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>180</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C90">
         <v>27.54</v>
@@ -2915,15 +3185,18 @@
         <v>27.54</v>
       </c>
       <c r="F90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>28.23</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C91">
         <v>5.79</v>
@@ -2935,15 +3208,18 @@
         <v>5.79</v>
       </c>
       <c r="F91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>5.83</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C92">
         <v>23.14</v>
@@ -2955,15 +3231,18 @@
         <v>23.14</v>
       </c>
       <c r="F92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>23.37</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C93">
         <v>103.25</v>
@@ -2975,15 +3254,18 @@
         <v>103.25</v>
       </c>
       <c r="F93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>104</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C94">
         <v>142.3</v>
@@ -2995,15 +3277,18 @@
         <v>142.3</v>
       </c>
       <c r="F94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>142.4</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C95">
         <v>2.5</v>
@@ -3015,15 +3300,18 @@
         <v>2.5</v>
       </c>
       <c r="F95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>2.58</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C96">
         <v>24.05</v>
@@ -3035,15 +3323,18 @@
         <v>24.05</v>
       </c>
       <c r="F96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>24.76</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C97">
         <v>192</v>
@@ -3055,15 +3346,18 @@
         <v>192</v>
       </c>
       <c r="F97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>199.4</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C98">
         <v>29.7</v>
@@ -3075,15 +3369,18 @@
         <v>29.7</v>
       </c>
       <c r="F98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>29.94</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C99">
         <v>19.67</v>
@@ -3095,15 +3392,18 @@
         <v>19.67</v>
       </c>
       <c r="F99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>19.69</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C100">
         <v>40.52</v>
@@ -3115,15 +3415,18 @@
         <v>40.52</v>
       </c>
       <c r="F100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>41.56</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C101">
         <v>19.41</v>
@@ -3135,15 +3438,18 @@
         <v>19.41</v>
       </c>
       <c r="F101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>19.61</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C102">
         <v>143.25</v>
@@ -3155,15 +3461,18 @@
         <v>143.25</v>
       </c>
       <c r="F102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>144.6</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C103">
         <v>7.33</v>
@@ -3175,15 +3484,18 @@
         <v>7.33</v>
       </c>
       <c r="F103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>7.5</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C104">
         <v>133</v>
@@ -3195,15 +3507,18 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>134.55</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C105">
         <v>58.28</v>
@@ -3215,15 +3530,18 @@
         <v>58.28</v>
       </c>
       <c r="F105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>57.75</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C106">
         <v>141.2</v>
@@ -3235,15 +3553,18 @@
         <v>141.2</v>
       </c>
       <c r="F106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>142.5</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C107">
         <v>19.82</v>
@@ -3255,15 +3576,18 @@
         <v>19.82</v>
       </c>
       <c r="F107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C108">
         <v>64.73999999999999</v>
@@ -3275,15 +3599,18 @@
         <v>64.73999999999999</v>
       </c>
       <c r="F108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>64.66</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B109" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C109">
         <v>11.59</v>
@@ -3295,15 +3622,18 @@
         <v>11.59</v>
       </c>
       <c r="F109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>11.45</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B110" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C110">
         <v>13.73</v>
@@ -3315,15 +3645,18 @@
         <v>13.73</v>
       </c>
       <c r="F110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>13.26</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B111" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C111">
         <v>4.01</v>
@@ -3335,15 +3668,18 @@
         <v>4.01</v>
       </c>
       <c r="F111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>3.97</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B112" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C112">
         <v>28.59</v>
@@ -3355,15 +3691,18 @@
         <v>28.59</v>
       </c>
       <c r="F112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>29.06</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B113" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C113">
         <v>31.24</v>
@@ -3375,15 +3714,18 @@
         <v>31.24</v>
       </c>
       <c r="F113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>32.22</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C114">
         <v>116.74</v>
@@ -3395,15 +3737,18 @@
         <v>116.74</v>
       </c>
       <c r="F114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>117.46</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B115" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C115">
         <v>333.5</v>
@@ -3415,15 +3760,18 @@
         <v>333.5</v>
       </c>
       <c r="F115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>337</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B116" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C116">
         <v>9.81</v>
@@ -3435,15 +3783,18 @@
         <v>9.81</v>
       </c>
       <c r="F116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>9.84</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C117">
         <v>7.56</v>
@@ -3455,15 +3806,18 @@
         <v>7.56</v>
       </c>
       <c r="F117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>7.81</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C118">
         <v>121</v>
@@ -3475,15 +3829,18 @@
         <v>121</v>
       </c>
       <c r="F118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>121.8</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B119" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C119">
         <v>79.3</v>
@@ -3495,15 +3852,18 @@
         <v>79.3</v>
       </c>
       <c r="F119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>80.45</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B120" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C120">
         <v>13.12</v>
@@ -3515,15 +3875,18 @@
         <v>13.12</v>
       </c>
       <c r="F120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>13.2</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B121" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C121">
         <v>9.210000000000001</v>
@@ -3535,14 +3898,17 @@
         <v>9.210000000000001</v>
       </c>
       <c r="F121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="E122" t="s">
-        <v>246</v>
-      </c>
-      <c r="F122">
+        <v>9.34</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="F122" t="s">
+        <v>247</v>
+      </c>
+      <c r="G122">
         <v>120</v>
       </c>
     </row>
